--- a/data/trans_orig/iP16_n_R2-Edad-trans_orig.xlsx
+++ b/data/trans_orig/iP16_n_R2-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5ED25AFD-99A5-4605-B5E9-98AB87D88740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B5689DA-240F-4CBF-9FEE-6FBE87987FC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{D92FE78E-0FBA-46A9-A9DA-97CD4C8EBD6D}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{89917349-D830-434E-AAD0-6B8E231AF08C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -134,6 +134,63 @@
     <t>100%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>60,32%</t>
+  </si>
+  <si>
+    <t>47,53%</t>
+  </si>
+  <si>
+    <t>70,43%</t>
+  </si>
+  <si>
+    <t>61,23%</t>
+  </si>
+  <si>
+    <t>46,26%</t>
+  </si>
+  <si>
+    <t>73,8%</t>
+  </si>
+  <si>
+    <t>60,72%</t>
+  </si>
+  <si>
+    <t>51,56%</t>
+  </si>
+  <si>
+    <t>69,67%</t>
+  </si>
+  <si>
+    <t>39,68%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>52,47%</t>
+  </si>
+  <si>
+    <t>38,77%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>53,74%</t>
+  </si>
+  <si>
+    <t>39,28%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>48,44%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
@@ -191,63 +248,6 @@
     <t>52,86%</t>
   </si>
   <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>60,32%</t>
-  </si>
-  <si>
-    <t>47,53%</t>
-  </si>
-  <si>
-    <t>70,43%</t>
-  </si>
-  <si>
-    <t>61,23%</t>
-  </si>
-  <si>
-    <t>46,26%</t>
-  </si>
-  <si>
-    <t>73,8%</t>
-  </si>
-  <si>
-    <t>60,72%</t>
-  </si>
-  <si>
-    <t>51,56%</t>
-  </si>
-  <si>
-    <t>69,67%</t>
-  </si>
-  <si>
-    <t>39,68%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>52,47%</t>
-  </si>
-  <si>
-    <t>38,77%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>53,74%</t>
-  </si>
-  <si>
-    <t>39,28%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>48,44%</t>
-  </si>
-  <si>
     <t>60,21%</t>
   </si>
   <si>
@@ -359,6 +359,60 @@
     <t>23,74%</t>
   </si>
   <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>83,31%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>80,15%</t>
+  </si>
+  <si>
+    <t>69,33%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>86,56%</t>
+  </si>
+  <si>
+    <t>79,52%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
     <t>85,08%</t>
   </si>
   <si>
@@ -413,60 +467,6 @@
     <t>26,17%</t>
   </si>
   <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>83,31%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>80,15%</t>
-  </si>
-  <si>
-    <t>69,33%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>86,56%</t>
-  </si>
-  <si>
-    <t>79,52%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
     <t>86,22%</t>
   </si>
   <si>
@@ -578,6 +578,54 @@
     <t>24,07%</t>
   </si>
   <si>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>88,8%</t>
+  </si>
+  <si>
+    <t>80,06%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>88,41%</t>
+  </si>
+  <si>
+    <t>82,01%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
     <t>86,76%</t>
   </si>
   <si>
@@ -632,54 +680,6 @@
     <t>17,66%</t>
   </si>
   <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>88,8%</t>
-  </si>
-  <si>
-    <t>80,06%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>88,41%</t>
-  </si>
-  <si>
-    <t>82,01%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
     <t>86,21%</t>
   </si>
   <si>
@@ -791,6 +791,60 @@
     <t>50,35%</t>
   </si>
   <si>
+    <t>60,51%</t>
+  </si>
+  <si>
+    <t>46,29%</t>
+  </si>
+  <si>
+    <t>72,23%</t>
+  </si>
+  <si>
+    <t>64,65%</t>
+  </si>
+  <si>
+    <t>53,69%</t>
+  </si>
+  <si>
+    <t>74,49%</t>
+  </si>
+  <si>
+    <t>62,63%</t>
+  </si>
+  <si>
+    <t>54,72%</t>
+  </si>
+  <si>
+    <t>71,38%</t>
+  </si>
+  <si>
+    <t>39,49%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>53,71%</t>
+  </si>
+  <si>
+    <t>35,35%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>46,31%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>45,28%</t>
+  </si>
+  <si>
     <t>71,4%</t>
   </si>
   <si>
@@ -843,60 +897,6 @@
   </si>
   <si>
     <t>35,27%</t>
-  </si>
-  <si>
-    <t>60,51%</t>
-  </si>
-  <si>
-    <t>46,29%</t>
-  </si>
-  <si>
-    <t>72,23%</t>
-  </si>
-  <si>
-    <t>64,65%</t>
-  </si>
-  <si>
-    <t>53,69%</t>
-  </si>
-  <si>
-    <t>74,49%</t>
-  </si>
-  <si>
-    <t>62,63%</t>
-  </si>
-  <si>
-    <t>54,72%</t>
-  </si>
-  <si>
-    <t>71,38%</t>
-  </si>
-  <si>
-    <t>39,49%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>53,71%</t>
-  </si>
-  <si>
-    <t>35,35%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>46,31%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>45,28%</t>
   </si>
   <si>
     <t>65,87%</t>
@@ -1342,7 +1342,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E831EDA-FB5C-41A2-AE3E-83B708E93394}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{656A5964-0D27-410B-A544-9A89EED66F95}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1615,10 +1615,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D7" s="7">
-        <v>29245</v>
+        <v>25571</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1630,10 +1630,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="I7" s="7">
-        <v>25447</v>
+        <v>20024</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1645,10 +1645,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="N7" s="7">
-        <v>54693</v>
+        <v>45595</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1666,10 +1666,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="D8" s="7">
-        <v>25810</v>
+        <v>16819</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1681,10 +1681,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I8" s="7">
-        <v>19234</v>
+        <v>12679</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1696,10 +1696,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="N8" s="7">
-        <v>45043</v>
+        <v>29498</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1717,10 +1717,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="D9" s="7">
-        <v>55055</v>
+        <v>42390</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1732,10 +1732,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="I9" s="7">
-        <v>44681</v>
+        <v>32703</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1747,10 +1747,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>147</v>
+        <v>113</v>
       </c>
       <c r="N9" s="7">
-        <v>99736</v>
+        <v>75093</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1770,10 +1770,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D10" s="7">
-        <v>25571</v>
+        <v>29245</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1785,10 +1785,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="I10" s="7">
-        <v>20024</v>
+        <v>25447</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1800,10 +1800,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="N10" s="7">
-        <v>45595</v>
+        <v>54693</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1821,10 +1821,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D11" s="7">
-        <v>16819</v>
+        <v>25810</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1836,10 +1836,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I11" s="7">
-        <v>12679</v>
+        <v>19234</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1851,10 +1851,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="N11" s="7">
-        <v>29498</v>
+        <v>45043</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1872,10 +1872,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="D12" s="7">
-        <v>42390</v>
+        <v>55055</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1887,10 +1887,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="I12" s="7">
-        <v>32703</v>
+        <v>44681</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1902,10 +1902,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>113</v>
+        <v>147</v>
       </c>
       <c r="N12" s="7">
-        <v>75093</v>
+        <v>99736</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2088,7 +2088,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1B935B8-E366-4E99-8079-78CFC405C004}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5587DE78-E116-400E-ADB3-8430A4B1E61D}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2361,10 +2361,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="D7" s="7">
-        <v>31418</v>
+        <v>53127</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>106</v>
@@ -2379,7 +2379,7 @@
         <v>50</v>
       </c>
       <c r="I7" s="7">
-        <v>34188</v>
+        <v>36683</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>109</v>
@@ -2391,10 +2391,10 @@
         <v>111</v>
       </c>
       <c r="M7" s="7">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="N7" s="7">
-        <v>65606</v>
+        <v>89810</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>112</v>
@@ -2412,10 +2412,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8" s="7">
-        <v>5509</v>
+        <v>4856</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>115</v>
@@ -2427,10 +2427,10 @@
         <v>117</v>
       </c>
       <c r="H8" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I8" s="7">
-        <v>8164</v>
+        <v>9084</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>118</v>
@@ -2445,7 +2445,7 @@
         <v>19</v>
       </c>
       <c r="N8" s="7">
-        <v>13673</v>
+        <v>13940</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>121</v>
@@ -2463,10 +2463,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="D9" s="7">
-        <v>36927</v>
+        <v>57983</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2478,10 +2478,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I9" s="7">
-        <v>42352</v>
+        <v>45767</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2493,10 +2493,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="N9" s="7">
-        <v>79279</v>
+        <v>103750</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2516,10 +2516,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="D10" s="7">
-        <v>53127</v>
+        <v>31418</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>124</v>
@@ -2534,7 +2534,7 @@
         <v>50</v>
       </c>
       <c r="I10" s="7">
-        <v>36683</v>
+        <v>34188</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>127</v>
@@ -2546,10 +2546,10 @@
         <v>129</v>
       </c>
       <c r="M10" s="7">
-        <v>123</v>
+        <v>95</v>
       </c>
       <c r="N10" s="7">
-        <v>89810</v>
+        <v>65606</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>130</v>
@@ -2567,10 +2567,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D11" s="7">
-        <v>4856</v>
+        <v>5509</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>133</v>
@@ -2582,10 +2582,10 @@
         <v>135</v>
       </c>
       <c r="H11" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I11" s="7">
-        <v>9084</v>
+        <v>8164</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>136</v>
@@ -2600,7 +2600,7 @@
         <v>19</v>
       </c>
       <c r="N11" s="7">
-        <v>13940</v>
+        <v>13673</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>139</v>
@@ -2618,10 +2618,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="D12" s="7">
-        <v>57983</v>
+        <v>36927</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2633,10 +2633,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I12" s="7">
-        <v>45767</v>
+        <v>42352</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2648,10 +2648,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>142</v>
+        <v>114</v>
       </c>
       <c r="N12" s="7">
-        <v>103750</v>
+        <v>79279</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2834,7 +2834,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D3CB88A-F361-423F-8BD1-D9B57EC8F35F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53D62284-A33A-4E4F-9B04-C8796F60502A}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3107,49 +3107,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D7" s="7">
-        <v>35828</v>
+        <v>36801</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>179</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="H7" s="7">
+        <v>59</v>
+      </c>
+      <c r="I7" s="7">
+        <v>39632</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="H7" s="7">
-        <v>48</v>
-      </c>
-      <c r="I7" s="7">
-        <v>34174</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>112</v>
+      </c>
+      <c r="N7" s="7">
+        <v>76434</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="M7" s="7">
-        <v>97</v>
-      </c>
-      <c r="N7" s="7">
-        <v>70002</v>
-      </c>
-      <c r="O7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3158,49 +3158,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
+        <v>7</v>
+      </c>
+      <c r="D8" s="7">
+        <v>5022</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H8" s="7">
         <v>8</v>
       </c>
-      <c r="D8" s="7">
-        <v>5469</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="F8" s="7" t="s">
+      <c r="I8" s="7">
+        <v>5000</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="H8" s="7">
-        <v>4</v>
-      </c>
-      <c r="I8" s="7">
-        <v>2898</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>15</v>
+      </c>
+      <c r="N8" s="7">
+        <v>10022</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="M8" s="7">
-        <v>12</v>
-      </c>
-      <c r="N8" s="7">
-        <v>8367</v>
-      </c>
-      <c r="O8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3209,10 +3209,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D9" s="7">
-        <v>41297</v>
+        <v>41823</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3224,10 +3224,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="I9" s="7">
-        <v>37072</v>
+        <v>44632</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3239,10 +3239,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="N9" s="7">
-        <v>78369</v>
+        <v>86456</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3262,49 +3262,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D10" s="7">
-        <v>36801</v>
+        <v>35828</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>48</v>
+      </c>
+      <c r="I10" s="7">
+        <v>34174</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="H10" s="7">
-        <v>59</v>
-      </c>
-      <c r="I10" s="7">
-        <v>39632</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>97</v>
+      </c>
+      <c r="N10" s="7">
+        <v>70002</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="M10" s="7">
-        <v>112</v>
-      </c>
-      <c r="N10" s="7">
-        <v>76434</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3313,25 +3313,25 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D11" s="7">
-        <v>5022</v>
+        <v>5469</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>105</v>
-      </c>
       <c r="H11" s="7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I11" s="7">
-        <v>5000</v>
+        <v>2898</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>207</v>
@@ -3343,10 +3343,10 @@
         <v>209</v>
       </c>
       <c r="M11" s="7">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N11" s="7">
-        <v>10022</v>
+        <v>8367</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>210</v>
@@ -3364,10 +3364,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D12" s="7">
-        <v>41823</v>
+        <v>41297</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3379,10 +3379,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="I12" s="7">
-        <v>44632</v>
+        <v>37072</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3394,10 +3394,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="N12" s="7">
-        <v>86456</v>
+        <v>78369</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3580,7 +3580,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD3C76C7-BE70-434C-9905-1390C303F997}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C82EEB37-A082-4F58-9EAA-F3FE43C54970}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3853,10 +3853,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="D7" s="7">
-        <v>60462</v>
+        <v>31460</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>250</v>
@@ -3868,10 +3868,10 @@
         <v>252</v>
       </c>
       <c r="H7" s="7">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="I7" s="7">
-        <v>52905</v>
+        <v>35300</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>253</v>
@@ -3883,10 +3883,10 @@
         <v>255</v>
       </c>
       <c r="M7" s="7">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="N7" s="7">
-        <v>113366</v>
+        <v>66760</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>256</v>
@@ -3904,10 +3904,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D8" s="7">
-        <v>24218</v>
+        <v>20527</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>259</v>
@@ -3919,10 +3919,10 @@
         <v>261</v>
       </c>
       <c r="H8" s="7">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I8" s="7">
-        <v>20705</v>
+        <v>19303</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>262</v>
@@ -3934,10 +3934,10 @@
         <v>264</v>
       </c>
       <c r="M8" s="7">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="N8" s="7">
-        <v>44924</v>
+        <v>39830</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>265</v>
@@ -3955,10 +3955,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="D9" s="7">
-        <v>84680</v>
+        <v>51987</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3970,10 +3970,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="I9" s="7">
-        <v>73610</v>
+        <v>54603</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3985,10 +3985,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>202</v>
+        <v>151</v>
       </c>
       <c r="N9" s="7">
-        <v>158290</v>
+        <v>106590</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4008,10 +4008,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="D10" s="7">
-        <v>31460</v>
+        <v>60462</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>268</v>
@@ -4023,10 +4023,10 @@
         <v>270</v>
       </c>
       <c r="H10" s="7">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="I10" s="7">
-        <v>35300</v>
+        <v>52905</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>271</v>
@@ -4038,10 +4038,10 @@
         <v>273</v>
       </c>
       <c r="M10" s="7">
-        <v>95</v>
+        <v>140</v>
       </c>
       <c r="N10" s="7">
-        <v>66760</v>
+        <v>113366</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>274</v>
@@ -4059,10 +4059,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D11" s="7">
-        <v>20527</v>
+        <v>24218</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>277</v>
@@ -4074,10 +4074,10 @@
         <v>279</v>
       </c>
       <c r="H11" s="7">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I11" s="7">
-        <v>19303</v>
+        <v>20705</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>280</v>
@@ -4089,10 +4089,10 @@
         <v>282</v>
       </c>
       <c r="M11" s="7">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="N11" s="7">
-        <v>39830</v>
+        <v>44924</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>283</v>
@@ -4110,10 +4110,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="D12" s="7">
-        <v>51987</v>
+        <v>84680</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4125,10 +4125,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="I12" s="7">
-        <v>54603</v>
+        <v>73610</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4140,10 +4140,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="N12" s="7">
-        <v>106590</v>
+        <v>158290</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/iP16_n_R2-Edad-trans_orig.xlsx
+++ b/data/trans_orig/iP16_n_R2-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B5689DA-240F-4CBF-9FEE-6FBE87987FC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8F060FF-10D4-40B7-96E2-0F1AA438D19B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{89917349-D830-434E-AAD0-6B8E231AF08C}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1EFEDF17-6F3C-4CED-B4D3-BDBB3661C9D4}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="376">
   <si>
     <t>Menores según si consumen más de dos medicamentos en 2007 (Tasa respuesta: 19,25%)</t>
   </si>
@@ -68,889 +68,1105 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>43,74%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>41,67%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>37,83%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>68,51%</t>
-  </si>
-  <si>
-    <t>56,77%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
-  </si>
-  <si>
-    <t>66,56%</t>
-  </si>
-  <si>
-    <t>56,42%</t>
-  </si>
-  <si>
-    <t>76,82%</t>
-  </si>
-  <si>
-    <t>67,52%</t>
-  </si>
-  <si>
-    <t>59,68%</t>
-  </si>
-  <si>
-    <t>75,07%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>43,23%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>43,58%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>40,32%</t>
+    <t>71,22%</t>
+  </si>
+  <si>
+    <t>56,26%</t>
+  </si>
+  <si>
+    <t>83,29%</t>
+  </si>
+  <si>
+    <t>73,52%</t>
+  </si>
+  <si>
+    <t>58,33%</t>
+  </si>
+  <si>
+    <t>83,76%</t>
+  </si>
+  <si>
+    <t>72,36%</t>
+  </si>
+  <si>
+    <t>62,17%</t>
+  </si>
+  <si>
+    <t>80,44%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>60,32%</t>
-  </si>
-  <si>
-    <t>47,53%</t>
-  </si>
-  <si>
-    <t>70,43%</t>
-  </si>
-  <si>
-    <t>61,23%</t>
-  </si>
-  <si>
-    <t>46,26%</t>
-  </si>
-  <si>
-    <t>73,8%</t>
-  </si>
-  <si>
-    <t>60,72%</t>
-  </si>
-  <si>
-    <t>51,56%</t>
-  </si>
-  <si>
-    <t>69,67%</t>
-  </si>
-  <si>
-    <t>39,68%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>52,47%</t>
-  </si>
-  <si>
-    <t>38,77%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>53,74%</t>
-  </si>
-  <si>
-    <t>39,28%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>48,44%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>53,12%</t>
-  </si>
-  <si>
-    <t>41,94%</t>
-  </si>
-  <si>
-    <t>64,26%</t>
-  </si>
-  <si>
-    <t>56,95%</t>
-  </si>
-  <si>
-    <t>44,32%</t>
-  </si>
-  <si>
-    <t>68,96%</t>
-  </si>
-  <si>
-    <t>54,84%</t>
-  </si>
-  <si>
-    <t>47,14%</t>
-  </si>
-  <si>
-    <t>63,18%</t>
-  </si>
-  <si>
-    <t>46,88%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
-  </si>
-  <si>
-    <t>58,06%</t>
-  </si>
-  <si>
-    <t>43,05%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>55,68%</t>
-  </si>
-  <si>
-    <t>45,16%</t>
-  </si>
-  <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>52,86%</t>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>41,15%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>52,36%</t>
+  </si>
+  <si>
+    <t>41,02%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>52,76%</t>
+  </si>
+  <si>
+    <t>41,09%</t>
+  </si>
+  <si>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>49,1%</t>
+  </si>
+  <si>
+    <t>58,85%</t>
+  </si>
+  <si>
+    <t>47,64%</t>
+  </si>
+  <si>
+    <t>69,16%</t>
+  </si>
+  <si>
+    <t>58,98%</t>
+  </si>
+  <si>
+    <t>47,24%</t>
+  </si>
+  <si>
+    <t>70,08%</t>
+  </si>
+  <si>
+    <t>58,91%</t>
+  </si>
+  <si>
+    <t>50,9%</t>
+  </si>
+  <si>
+    <t>66,69%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>41,96%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>58,62%</t>
+  </si>
+  <si>
+    <t>38,86%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>55,84%</t>
+  </si>
+  <si>
+    <t>40,45%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>51,54%</t>
+  </si>
+  <si>
+    <t>58,04%</t>
+  </si>
+  <si>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>74,05%</t>
+  </si>
+  <si>
+    <t>61,14%</t>
+  </si>
+  <si>
+    <t>44,16%</t>
+  </si>
+  <si>
+    <t>76,1%</t>
+  </si>
+  <si>
+    <t>59,55%</t>
+  </si>
+  <si>
+    <t>48,46%</t>
+  </si>
+  <si>
+    <t>70,85%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>45,0%</t>
+  </si>
+  <si>
+    <t>33,05%</t>
+  </si>
+  <si>
+    <t>60,29%</t>
+  </si>
+  <si>
+    <t>45,09%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>60,98%</t>
+  </si>
+  <si>
+    <t>45,04%</t>
+  </si>
+  <si>
+    <t>35,76%</t>
+  </si>
+  <si>
+    <t>55,02%</t>
+  </si>
+  <si>
+    <t>55,0%</t>
+  </si>
+  <si>
+    <t>39,71%</t>
+  </si>
+  <si>
+    <t>66,95%</t>
+  </si>
+  <si>
+    <t>54,91%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>67,95%</t>
+  </si>
+  <si>
+    <t>54,96%</t>
+  </si>
+  <si>
+    <t>44,98%</t>
+  </si>
+  <si>
+    <t>64,24%</t>
+  </si>
+  <si>
+    <t>39,79%</t>
+  </si>
+  <si>
+    <t>33,12%</t>
+  </si>
+  <si>
+    <t>46,62%</t>
+  </si>
+  <si>
+    <t>38,26%</t>
+  </si>
+  <si>
+    <t>45,45%</t>
+  </si>
+  <si>
+    <t>39,08%</t>
+  </si>
+  <si>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>43,63%</t>
   </si>
   <si>
     <t>60,21%</t>
   </si>
   <si>
-    <t>53,86%</t>
-  </si>
-  <si>
-    <t>66,61%</t>
+    <t>53,38%</t>
+  </si>
+  <si>
+    <t>66,88%</t>
   </si>
   <si>
     <t>61,74%</t>
   </si>
   <si>
-    <t>54,47%</t>
-  </si>
-  <si>
-    <t>68,78%</t>
+    <t>54,55%</t>
   </si>
   <si>
     <t>60,92%</t>
   </si>
   <si>
-    <t>55,76%</t>
-  </si>
-  <si>
-    <t>65,6%</t>
-  </si>
-  <si>
-    <t>39,79%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>46,14%</t>
-  </si>
-  <si>
-    <t>38,26%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>45,53%</t>
-  </si>
-  <si>
-    <t>39,08%</t>
-  </si>
-  <si>
-    <t>34,4%</t>
-  </si>
-  <si>
-    <t>44,24%</t>
+    <t>56,37%</t>
+  </si>
+  <si>
+    <t>65,59%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
   <si>
     <t>Menores según si consumen más de dos medicamentos en 2012 (Tasa respuesta: 20,77%)</t>
   </si>
   <si>
-    <t>81,97%</t>
-  </si>
-  <si>
-    <t>72,6%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>84,52%</t>
-  </si>
-  <si>
-    <t>74,24%</t>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>31,67%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>83,35%</t>
+  </si>
+  <si>
+    <t>70,86%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>80,37%</t>
+  </si>
+  <si>
+    <t>68,33%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>81,9%</t>
+  </si>
+  <si>
+    <t>73,84%</t>
+  </si>
+  <si>
+    <t>88,62%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>78,38%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>82,84%</t>
+  </si>
+  <si>
+    <t>71,65%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>85,28%</t>
+  </si>
+  <si>
+    <t>79,2%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>76,69%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>77,72%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>80,72%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>40,39%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>82,26%</t>
+  </si>
+  <si>
+    <t>66,99%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>75,15%</t>
+  </si>
+  <si>
+    <t>59,61%</t>
+  </si>
+  <si>
+    <t>87,47%</t>
+  </si>
+  <si>
+    <t>78,55%</t>
+  </si>
+  <si>
+    <t>67,53%</t>
+  </si>
+  <si>
+    <t>86,24%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>86,22%</t>
+  </si>
+  <si>
+    <t>81,19%</t>
   </si>
   <si>
     <t>90,46%</t>
   </si>
   <si>
-    <t>83,2%</t>
-  </si>
-  <si>
-    <t>76,26%</t>
-  </si>
-  <si>
-    <t>88,44%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>83,31%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>80,15%</t>
-  </si>
-  <si>
-    <t>69,33%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>86,56%</t>
-  </si>
-  <si>
-    <t>79,52%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>85,08%</t>
-  </si>
-  <si>
-    <t>73,48%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>80,72%</t>
-  </si>
-  <si>
-    <t>68,36%</t>
-  </si>
-  <si>
-    <t>89,51%</t>
-  </si>
-  <si>
-    <t>82,75%</t>
-  </si>
-  <si>
-    <t>73,83%</t>
-  </si>
-  <si>
-    <t>89,2%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>86,22%</t>
-  </si>
-  <si>
-    <t>81,06%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
-  </si>
-  <si>
     <t>82,08%</t>
   </si>
   <si>
-    <t>76,43%</t>
-  </si>
-  <si>
-    <t>86,87%</t>
+    <t>76,51%</t>
+  </si>
+  <si>
+    <t>86,58%</t>
   </si>
   <si>
     <t>84,23%</t>
   </si>
   <si>
-    <t>80,2%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
+    <t>80,61%</t>
+  </si>
+  <si>
+    <t>87,33%</t>
   </si>
   <si>
     <t>Menores según si consumen más de dos medicamentos en 2015 (Tasa respuesta: 17,45%)</t>
   </si>
   <si>
-    <t>83,79%</t>
-  </si>
-  <si>
-    <t>73,29%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>82,32%</t>
-  </si>
-  <si>
-    <t>72,16%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>83,01%</t>
-  </si>
-  <si>
-    <t>75,93%</t>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>40,74%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>75,22%</t>
+  </si>
+  <si>
+    <t>59,26%</t>
+  </si>
+  <si>
+    <t>88,26%</t>
+  </si>
+  <si>
+    <t>83,82%</t>
+  </si>
+  <si>
+    <t>69,84%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>79,78%</t>
+  </si>
+  <si>
+    <t>68,99%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>80,99%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>85,43%</t>
+  </si>
+  <si>
+    <t>73,02%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>81,75%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
   </si>
   <si>
     <t>88,83%</t>
   </si>
   <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>88,8%</t>
-  </si>
-  <si>
-    <t>80,06%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>88,41%</t>
-  </si>
-  <si>
-    <t>82,01%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
-  </si>
-  <si>
-    <t>75,71%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>80,22%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>82,34%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
+    <t>77,43%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
+  </si>
+  <si>
+    <t>77,24%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>88,64%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>85,27%</t>
+  </si>
+  <si>
+    <t>69,3%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>78,51%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
+  </si>
+  <si>
+    <t>79,45%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
   </si>
   <si>
     <t>86,21%</t>
   </si>
   <si>
-    <t>80,61%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
+    <t>81,1%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
   </si>
   <si>
     <t>87,46%</t>
   </si>
   <si>
-    <t>82,22%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
+    <t>81,88%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
   </si>
   <si>
     <t>86,84%</t>
   </si>
   <si>
-    <t>82,89%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
+    <t>83,21%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
   </si>
   <si>
     <t>Menores según si consumen más de dos medicamentos en 2023 (Tasa respuesta: 24,79%)</t>
   </si>
   <si>
-    <t>60,55%</t>
-  </si>
-  <si>
-    <t>48,64%</t>
-  </si>
-  <si>
-    <t>72,2%</t>
-  </si>
-  <si>
-    <t>57,33%</t>
-  </si>
-  <si>
-    <t>42,76%</t>
-  </si>
-  <si>
-    <t>70,14%</t>
-  </si>
-  <si>
-    <t>59,19%</t>
-  </si>
-  <si>
-    <t>49,65%</t>
-  </si>
-  <si>
-    <t>67,82%</t>
-  </si>
-  <si>
-    <t>39,45%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>51,36%</t>
-  </si>
-  <si>
-    <t>42,67%</t>
-  </si>
-  <si>
-    <t>29,86%</t>
-  </si>
-  <si>
-    <t>57,24%</t>
-  </si>
-  <si>
-    <t>40,81%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>50,35%</t>
-  </si>
-  <si>
-    <t>60,51%</t>
-  </si>
-  <si>
-    <t>46,29%</t>
-  </si>
-  <si>
-    <t>72,23%</t>
-  </si>
-  <si>
-    <t>64,65%</t>
-  </si>
-  <si>
-    <t>53,69%</t>
-  </si>
-  <si>
-    <t>74,49%</t>
-  </si>
-  <si>
-    <t>62,63%</t>
-  </si>
-  <si>
-    <t>54,72%</t>
-  </si>
-  <si>
-    <t>71,38%</t>
-  </si>
-  <si>
-    <t>39,49%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>53,71%</t>
-  </si>
-  <si>
-    <t>35,35%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>46,31%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>45,28%</t>
-  </si>
-  <si>
-    <t>71,4%</t>
-  </si>
-  <si>
-    <t>60,57%</t>
-  </si>
-  <si>
-    <t>78,79%</t>
-  </si>
-  <si>
-    <t>71,87%</t>
-  </si>
-  <si>
-    <t>61,35%</t>
-  </si>
-  <si>
-    <t>82,67%</t>
-  </si>
-  <si>
-    <t>71,62%</t>
-  </si>
-  <si>
-    <t>64,73%</t>
-  </si>
-  <si>
-    <t>78,56%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>39,43%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>38,65%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
+    <t>36,22%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>51,31%</t>
+  </si>
+  <si>
+    <t>52,67%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>72,46%</t>
+  </si>
+  <si>
+    <t>43,33%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>54,53%</t>
+  </si>
+  <si>
+    <t>63,78%</t>
+  </si>
+  <si>
+    <t>48,69%</t>
+  </si>
+  <si>
+    <t>77,52%</t>
+  </si>
+  <si>
+    <t>47,33%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>65,46%</t>
+  </si>
+  <si>
+    <t>56,67%</t>
+  </si>
+  <si>
+    <t>45,47%</t>
+  </si>
+  <si>
+    <t>69,13%</t>
+  </si>
+  <si>
+    <t>42,57%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>56,18%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>41,35%</t>
+  </si>
+  <si>
+    <t>35,97%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>43,99%</t>
+  </si>
+  <si>
+    <t>57,43%</t>
+  </si>
+  <si>
+    <t>43,82%</t>
+  </si>
+  <si>
+    <t>68,08%</t>
+  </si>
+  <si>
+    <t>70,82%</t>
+  </si>
+  <si>
+    <t>58,65%</t>
+  </si>
+  <si>
+    <t>81,69%</t>
+  </si>
+  <si>
+    <t>64,03%</t>
+  </si>
+  <si>
+    <t>56,01%</t>
+  </si>
+  <si>
+    <t>71,21%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>40,23%</t>
+  </si>
+  <si>
+    <t>49,75%</t>
+  </si>
+  <si>
+    <t>36,67%</t>
+  </si>
+  <si>
+    <t>63,16%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>46,56%</t>
+  </si>
+  <si>
+    <t>73,55%</t>
+  </si>
+  <si>
+    <t>59,77%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
+  </si>
+  <si>
+    <t>50,25%</t>
+  </si>
+  <si>
+    <t>36,84%</t>
+  </si>
+  <si>
+    <t>63,33%</t>
+  </si>
+  <si>
+    <t>62,87%</t>
+  </si>
+  <si>
+    <t>53,44%</t>
+  </si>
+  <si>
+    <t>71,71%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>45,65%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>67,43%</t>
+  </si>
+  <si>
+    <t>54,35%</t>
+  </si>
+  <si>
+    <t>76,87%</t>
+  </si>
+  <si>
+    <t>79,98%</t>
+  </si>
+  <si>
+    <t>67,9%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>73,43%</t>
+  </si>
+  <si>
+    <t>65,13%</t>
+  </si>
+  <si>
+    <t>81,48%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>40,48%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>39,89%</t>
+  </si>
+  <si>
+    <t>33,67%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>38,75%</t>
   </si>
   <si>
     <t>65,87%</t>
   </si>
   <si>
-    <t>59,29%</t>
-  </si>
-  <si>
-    <t>71,36%</t>
+    <t>59,52%</t>
+  </si>
+  <si>
+    <t>72,31%</t>
   </si>
   <si>
     <t>66,85%</t>
   </si>
   <si>
-    <t>60,06%</t>
-  </si>
-  <si>
-    <t>74,23%</t>
+    <t>60,11%</t>
+  </si>
+  <si>
+    <t>73,9%</t>
   </si>
   <si>
     <t>66,33%</t>
   </si>
   <si>
-    <t>61,21%</t>
-  </si>
-  <si>
-    <t>70,37%</t>
-  </si>
-  <si>
-    <t>34,13%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>40,71%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>39,94%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>38,79%</t>
+    <t>61,25%</t>
+  </si>
+  <si>
+    <t>70,88%</t>
   </si>
 </sst>
 </file>
@@ -961,7 +1177,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1057,39 +1273,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1141,7 +1357,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1252,13 +1468,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1267,6 +1476,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1331,19 +1547,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{656A5964-0D27-410B-A544-9A89EED66F95}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7AB8707-D197-47D1-95AC-B93AC497E322}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1460,10 +1696,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="D4" s="7">
-        <v>31839</v>
+        <v>8534</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1475,10 +1711,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="I4" s="7">
-        <v>31897</v>
+        <v>7688</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1490,10 +1726,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>98</v>
+        <v>25</v>
       </c>
       <c r="N4" s="7">
-        <v>63736</v>
+        <v>16223</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1511,10 +1747,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D5" s="7">
-        <v>14635</v>
+        <v>21121</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1526,10 +1762,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="I5" s="7">
-        <v>16024</v>
+        <v>21347</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1541,10 +1777,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="N5" s="7">
-        <v>30659</v>
+        <v>42467</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1562,10 +1798,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="D6" s="7">
-        <v>46474</v>
+        <v>29655</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1577,10 +1813,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="I6" s="7">
-        <v>47921</v>
+        <v>29035</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1592,10 +1828,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>145</v>
+        <v>90</v>
       </c>
       <c r="N6" s="7">
-        <v>94395</v>
+        <v>58690</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1615,10 +1851,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D7" s="7">
-        <v>25571</v>
+        <v>20969</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1630,10 +1866,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I7" s="7">
-        <v>20024</v>
+        <v>17731</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1645,10 +1881,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="N7" s="7">
-        <v>45595</v>
+        <v>38699</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1666,10 +1902,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="D8" s="7">
-        <v>16819</v>
+        <v>29991</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1681,10 +1917,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="I8" s="7">
-        <v>12679</v>
+        <v>25490</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1696,10 +1932,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="N8" s="7">
-        <v>29498</v>
+        <v>55482</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1717,10 +1953,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="D9" s="7">
-        <v>42390</v>
+        <v>50960</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1732,10 +1968,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="I9" s="7">
-        <v>32703</v>
+        <v>43221</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1747,10 +1983,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>113</v>
+        <v>142</v>
       </c>
       <c r="N9" s="7">
-        <v>75093</v>
+        <v>94181</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1770,10 +2006,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="D10" s="7">
-        <v>29245</v>
+        <v>10013</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1785,10 +2021,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="I10" s="7">
-        <v>25447</v>
+        <v>8747</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1800,10 +2036,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>81</v>
+        <v>28</v>
       </c>
       <c r="N10" s="7">
-        <v>54693</v>
+        <v>18760</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1821,10 +2057,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="D11" s="7">
-        <v>25810</v>
+        <v>13853</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1836,10 +2072,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="I11" s="7">
-        <v>19234</v>
+        <v>13760</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1851,10 +2087,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="N11" s="7">
-        <v>45043</v>
+        <v>27613</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1872,10 +2108,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="D12" s="7">
-        <v>55055</v>
+        <v>23866</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1887,10 +2123,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="I12" s="7">
-        <v>44681</v>
+        <v>22507</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1902,10 +2138,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>147</v>
+        <v>69</v>
       </c>
       <c r="N12" s="7">
-        <v>99736</v>
+        <v>46373</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1919,55 +2155,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>131</v>
+        <v>26</v>
       </c>
       <c r="D13" s="7">
-        <v>86656</v>
+        <v>17747</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>118</v>
+        <v>20</v>
       </c>
       <c r="I13" s="7">
-        <v>77368</v>
+        <v>13771</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>249</v>
+        <v>46</v>
       </c>
       <c r="N13" s="7">
-        <v>164024</v>
+        <v>31519</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1976,49 +2212,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>33</v>
+      </c>
+      <c r="D14" s="7">
+        <v>21691</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H14" s="7">
+        <v>25</v>
+      </c>
+      <c r="I14" s="7">
+        <v>16772</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D14" s="7">
-        <v>57263</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="H14" s="7">
-        <v>72</v>
-      </c>
-      <c r="I14" s="7">
-        <v>47937</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>83</v>
-      </c>
       <c r="M14" s="7">
-        <v>156</v>
+        <v>58</v>
       </c>
       <c r="N14" s="7">
-        <v>105200</v>
+        <v>38462</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2027,55 +2263,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>59</v>
+      </c>
+      <c r="D15" s="7">
+        <v>39438</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>45</v>
+      </c>
+      <c r="I15" s="7">
+        <v>30543</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>104</v>
+      </c>
+      <c r="N15" s="7">
+        <v>69981</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>84</v>
+      </c>
+      <c r="D16" s="7">
+        <v>57263</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H16" s="7">
+        <v>72</v>
+      </c>
+      <c r="I16" s="7">
+        <v>47937</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="M16" s="7">
+        <v>156</v>
+      </c>
+      <c r="N16" s="7">
+        <v>105200</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>131</v>
+      </c>
+      <c r="D17" s="7">
+        <v>86656</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H17" s="7">
+        <v>118</v>
+      </c>
+      <c r="I17" s="7">
+        <v>77368</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="M17" s="7">
+        <v>249</v>
+      </c>
+      <c r="N17" s="7">
+        <v>164024</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>215</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>143919</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>190</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>125305</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
         <v>405</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>269224</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2088,8 +2485,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5587DE78-E116-400E-ADB3-8430A4B1E61D}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D72EDF13-08D5-4C60-AE22-AE40772F74FC}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2105,7 +2502,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2206,49 +2603,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>75</v>
+        <v>8</v>
       </c>
       <c r="D4" s="7">
-        <v>52184</v>
+        <v>6397</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="H4" s="7">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="I4" s="7">
-        <v>50360</v>
+        <v>7163</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="M4" s="7">
-        <v>151</v>
+        <v>19</v>
       </c>
       <c r="N4" s="7">
-        <v>102545</v>
+        <v>13561</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2257,49 +2654,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="D5" s="7">
-        <v>11479</v>
+        <v>32029</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="H5" s="7">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="I5" s="7">
-        <v>9222</v>
+        <v>29334</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="M5" s="7">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="N5" s="7">
-        <v>20701</v>
+        <v>61362</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2308,10 +2705,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="D6" s="7">
-        <v>63663</v>
+        <v>38426</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2323,10 +2720,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="I6" s="7">
-        <v>59582</v>
+        <v>36497</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2338,10 +2735,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>180</v>
+        <v>109</v>
       </c>
       <c r="N6" s="7">
-        <v>123246</v>
+        <v>74923</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2361,49 +2758,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="D7" s="7">
-        <v>53127</v>
+        <v>8597</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="H7" s="7">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="I7" s="7">
-        <v>36683</v>
+        <v>9293</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="M7" s="7">
-        <v>123</v>
+        <v>24</v>
       </c>
       <c r="N7" s="7">
-        <v>89810</v>
+        <v>17890</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2412,49 +2809,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>7</v>
+        <v>82</v>
       </c>
       <c r="D8" s="7">
-        <v>4856</v>
+        <v>58768</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="H8" s="7">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="I8" s="7">
-        <v>9084</v>
+        <v>44872</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="M8" s="7">
-        <v>19</v>
+        <v>147</v>
       </c>
       <c r="N8" s="7">
-        <v>13940</v>
+        <v>103639</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2463,10 +2860,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="D9" s="7">
-        <v>57983</v>
+        <v>67365</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2478,10 +2875,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="I9" s="7">
-        <v>45767</v>
+        <v>54165</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2493,10 +2890,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>142</v>
+        <v>171</v>
       </c>
       <c r="N9" s="7">
-        <v>103750</v>
+        <v>121529</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2516,49 +2913,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="D10" s="7">
-        <v>31418</v>
+        <v>2438</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="H10" s="7">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="I10" s="7">
-        <v>34188</v>
+        <v>3263</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="M10" s="7">
-        <v>95</v>
+        <v>8</v>
       </c>
       <c r="N10" s="7">
-        <v>65606</v>
+        <v>5701</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2567,49 +2964,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="D11" s="7">
-        <v>5509</v>
+        <v>25477</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="H11" s="7">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="I11" s="7">
-        <v>8164</v>
+        <v>26607</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="M11" s="7">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="N11" s="7">
-        <v>13673</v>
+        <v>52084</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2618,10 +3015,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="D12" s="7">
-        <v>36927</v>
+        <v>27915</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2633,10 +3030,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="I12" s="7">
-        <v>42352</v>
+        <v>29870</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2648,10 +3045,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="N12" s="7">
-        <v>79279</v>
+        <v>57785</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2665,55 +3062,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>193</v>
+        <v>7</v>
       </c>
       <c r="D13" s="7">
-        <v>136730</v>
+        <v>4412</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="H13" s="7">
-        <v>176</v>
+        <v>9</v>
       </c>
       <c r="I13" s="7">
-        <v>121231</v>
+        <v>6751</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="M13" s="7">
-        <v>369</v>
+        <v>16</v>
       </c>
       <c r="N13" s="7">
-        <v>257959</v>
+        <v>11163</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2722,49 +3119,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D14" s="7">
-        <v>21844</v>
+        <v>20456</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="H14" s="7">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="I14" s="7">
-        <v>26470</v>
+        <v>20418</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="M14" s="7">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="N14" s="7">
-        <v>48315</v>
+        <v>40874</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2773,55 +3170,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>36</v>
+      </c>
+      <c r="D15" s="7">
+        <v>24868</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>39</v>
+      </c>
+      <c r="I15" s="7">
+        <v>27169</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>75</v>
+      </c>
+      <c r="N15" s="7">
+        <v>52037</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>30</v>
+      </c>
+      <c r="D16" s="7">
+        <v>21844</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="H16" s="7">
+        <v>37</v>
+      </c>
+      <c r="I16" s="7">
+        <v>26470</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="M16" s="7">
+        <v>67</v>
+      </c>
+      <c r="N16" s="7">
+        <v>48315</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>193</v>
+      </c>
+      <c r="D17" s="7">
+        <v>136730</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H17" s="7">
+        <v>176</v>
+      </c>
+      <c r="I17" s="7">
+        <v>121231</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="M17" s="7">
+        <v>369</v>
+      </c>
+      <c r="N17" s="7">
+        <v>257959</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>223</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>158574</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>213</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>147701</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
         <v>436</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>306274</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2834,8 +3392,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53D62284-A33A-4E4F-9B04-C8796F60502A}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FA681C3-4C9E-40DC-A926-6A57A8C440B4}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2851,7 +3409,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>160</v>
+        <v>196</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2952,49 +3510,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="D4" s="7">
-        <v>33648</v>
+        <v>5941</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>161</v>
+        <v>197</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>162</v>
+        <v>198</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>163</v>
+        <v>199</v>
       </c>
       <c r="H4" s="7">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="I4" s="7">
-        <v>37665</v>
+        <v>4375</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>164</v>
+        <v>200</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>165</v>
+        <v>201</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>166</v>
+        <v>202</v>
       </c>
       <c r="M4" s="7">
-        <v>111</v>
+        <v>17</v>
       </c>
       <c r="N4" s="7">
-        <v>71313</v>
+        <v>10316</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>167</v>
+        <v>203</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>168</v>
+        <v>204</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>169</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3003,49 +3561,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="D5" s="7">
-        <v>6508</v>
+        <v>18035</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>170</v>
+        <v>206</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>171</v>
+        <v>207</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>172</v>
+        <v>208</v>
       </c>
       <c r="H5" s="7">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="I5" s="7">
-        <v>8091</v>
+        <v>22658</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>173</v>
+        <v>209</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>174</v>
+        <v>210</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>175</v>
+        <v>211</v>
       </c>
       <c r="M5" s="7">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="N5" s="7">
-        <v>14599</v>
+        <v>40693</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>176</v>
+        <v>212</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>177</v>
+        <v>213</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>178</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3054,10 +3612,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="D6" s="7">
-        <v>40156</v>
+        <v>23976</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3069,10 +3627,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="I6" s="7">
-        <v>45756</v>
+        <v>27033</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3084,10 +3642,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>135</v>
+        <v>82</v>
       </c>
       <c r="N6" s="7">
-        <v>85912</v>
+        <v>51009</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3107,49 +3665,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="D7" s="7">
-        <v>36801</v>
+        <v>3968</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>179</v>
+        <v>215</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>95</v>
+        <v>216</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>180</v>
+        <v>217</v>
       </c>
       <c r="H7" s="7">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="I7" s="7">
-        <v>39632</v>
+        <v>6153</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>181</v>
+        <v>218</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>182</v>
+        <v>219</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>183</v>
+        <v>220</v>
       </c>
       <c r="M7" s="7">
-        <v>112</v>
+        <v>16</v>
       </c>
       <c r="N7" s="7">
-        <v>76434</v>
+        <v>10121</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>184</v>
+        <v>221</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>185</v>
+        <v>222</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>186</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3158,49 +3716,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="D8" s="7">
-        <v>5022</v>
+        <v>39128</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>187</v>
+        <v>224</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>188</v>
+        <v>225</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>105</v>
+        <v>226</v>
       </c>
       <c r="H8" s="7">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="I8" s="7">
-        <v>5000</v>
+        <v>36086</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>189</v>
+        <v>227</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>190</v>
+        <v>228</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>191</v>
+        <v>229</v>
       </c>
       <c r="M8" s="7">
-        <v>15</v>
+        <v>112</v>
       </c>
       <c r="N8" s="7">
-        <v>10022</v>
+        <v>75214</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>192</v>
+        <v>230</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>193</v>
+        <v>231</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>194</v>
+        <v>232</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3209,10 +3767,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D9" s="7">
-        <v>41823</v>
+        <v>43096</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3224,10 +3782,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I9" s="7">
-        <v>44632</v>
+        <v>42239</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3239,10 +3797,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N9" s="7">
-        <v>86456</v>
+        <v>85335</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3262,49 +3820,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="D10" s="7">
-        <v>35828</v>
+        <v>3737</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>195</v>
+        <v>233</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>196</v>
+        <v>234</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>197</v>
+        <v>235</v>
       </c>
       <c r="H10" s="7">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="I10" s="7">
-        <v>34174</v>
+        <v>4166</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>198</v>
+        <v>236</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>199</v>
+        <v>237</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>200</v>
+        <v>238</v>
       </c>
       <c r="M10" s="7">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="N10" s="7">
-        <v>70002</v>
+        <v>7903</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>201</v>
+        <v>239</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>202</v>
+        <v>240</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>203</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3313,49 +3871,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="D11" s="7">
-        <v>5469</v>
+        <v>29709</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>204</v>
+        <v>241</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>205</v>
+        <v>242</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>206</v>
+        <v>243</v>
       </c>
       <c r="H11" s="7">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="I11" s="7">
-        <v>2898</v>
+        <v>31958</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>207</v>
+        <v>244</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>208</v>
+        <v>245</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>209</v>
+        <v>246</v>
       </c>
       <c r="M11" s="7">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="N11" s="7">
-        <v>8367</v>
+        <v>61667</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>210</v>
+        <v>247</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>211</v>
+        <v>118</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>212</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3364,10 +3922,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D12" s="7">
-        <v>41297</v>
+        <v>33446</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3382,7 +3940,7 @@
         <v>52</v>
       </c>
       <c r="I12" s="7">
-        <v>37072</v>
+        <v>36124</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3394,10 +3952,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="N12" s="7">
-        <v>78369</v>
+        <v>69570</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3411,55 +3969,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>153</v>
+        <v>5</v>
       </c>
       <c r="D13" s="7">
-        <v>106278</v>
+        <v>3352</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>213</v>
+        <v>249</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>214</v>
+        <v>250</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>215</v>
+        <v>251</v>
       </c>
       <c r="H13" s="7">
-        <v>167</v>
+        <v>2</v>
       </c>
       <c r="I13" s="7">
-        <v>111472</v>
+        <v>1296</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>216</v>
+        <v>252</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>217</v>
+        <v>253</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>218</v>
+        <v>254</v>
       </c>
       <c r="M13" s="7">
-        <v>320</v>
+        <v>7</v>
       </c>
       <c r="N13" s="7">
-        <v>217750</v>
+        <v>4648</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>219</v>
+        <v>255</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>220</v>
+        <v>256</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>221</v>
+        <v>257</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3471,46 +4029,46 @@
         <v>26</v>
       </c>
       <c r="D14" s="7">
-        <v>16998</v>
+        <v>19406</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>222</v>
+        <v>258</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>223</v>
+        <v>259</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>224</v>
+        <v>260</v>
       </c>
       <c r="H14" s="7">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I14" s="7">
-        <v>15989</v>
+        <v>20769</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>225</v>
+        <v>261</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>226</v>
+        <v>262</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>227</v>
+        <v>263</v>
       </c>
       <c r="M14" s="7">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="N14" s="7">
-        <v>32987</v>
+        <v>40175</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>228</v>
+        <v>264</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>229</v>
+        <v>265</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>230</v>
+        <v>266</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3519,55 +4077,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>31</v>
+      </c>
+      <c r="D15" s="7">
+        <v>22758</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>31</v>
+      </c>
+      <c r="I15" s="7">
+        <v>22065</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>62</v>
+      </c>
+      <c r="N15" s="7">
+        <v>44823</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>26</v>
+      </c>
+      <c r="D16" s="7">
+        <v>16998</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="H16" s="7">
+        <v>25</v>
+      </c>
+      <c r="I16" s="7">
+        <v>15989</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="M16" s="7">
+        <v>51</v>
+      </c>
+      <c r="N16" s="7">
+        <v>32987</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>153</v>
+      </c>
+      <c r="D17" s="7">
+        <v>106278</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="H17" s="7">
+        <v>167</v>
+      </c>
+      <c r="I17" s="7">
+        <v>111472</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="M17" s="7">
+        <v>320</v>
+      </c>
+      <c r="N17" s="7">
+        <v>217750</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>179</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>123276</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>192</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>127461</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
         <v>371</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>250737</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3580,8 +4299,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C82EEB37-A082-4F58-9EAA-F3FE43C54970}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9423053-E5C5-4C8E-A32C-5F32F9B934FA}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3597,7 +4316,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>231</v>
+        <v>285</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3698,49 +4417,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="D4" s="7">
-        <v>21720</v>
+        <v>7583</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>232</v>
+        <v>286</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>233</v>
+        <v>287</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>234</v>
+        <v>288</v>
       </c>
       <c r="H4" s="7">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I4" s="7">
-        <v>15020</v>
+        <v>8396</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>235</v>
+        <v>289</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>236</v>
+        <v>290</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>237</v>
+        <v>291</v>
       </c>
       <c r="M4" s="7">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="N4" s="7">
-        <v>36740</v>
+        <v>15980</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>238</v>
+        <v>292</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>239</v>
+        <v>293</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>240</v>
+        <v>294</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3749,49 +4468,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D5" s="7">
-        <v>14150</v>
+        <v>13352</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>241</v>
+        <v>295</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>242</v>
+        <v>296</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>243</v>
+        <v>297</v>
       </c>
       <c r="H5" s="7">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="I5" s="7">
-        <v>11178</v>
+        <v>7546</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>244</v>
+        <v>298</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>245</v>
+        <v>299</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>246</v>
+        <v>300</v>
       </c>
       <c r="M5" s="7">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="N5" s="7">
-        <v>25328</v>
+        <v>20897</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>247</v>
+        <v>301</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>248</v>
+        <v>302</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>249</v>
+        <v>303</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3800,40 +4519,40 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>42</v>
+      </c>
+      <c r="D6" s="7">
+        <v>20935</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
+        <v>30</v>
+      </c>
+      <c r="I6" s="7">
+        <v>15942</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="7">
         <v>72</v>
       </c>
-      <c r="D6" s="7">
-        <v>35870</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>51</v>
-      </c>
-      <c r="I6" s="7">
-        <v>26198</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M6" s="7">
-        <v>123</v>
-      </c>
       <c r="N6" s="7">
-        <v>62068</v>
+        <v>36877</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3853,49 +4572,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D7" s="7">
-        <v>31460</v>
+        <v>19583</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>250</v>
+        <v>304</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>251</v>
+        <v>305</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>252</v>
+        <v>306</v>
       </c>
       <c r="H7" s="7">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="I7" s="7">
-        <v>35300</v>
+        <v>13054</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>253</v>
+        <v>307</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>254</v>
+        <v>308</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>255</v>
+        <v>309</v>
       </c>
       <c r="M7" s="7">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="N7" s="7">
-        <v>66760</v>
+        <v>32638</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>256</v>
+        <v>310</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>257</v>
+        <v>311</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>258</v>
+        <v>312</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3904,49 +4623,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="D8" s="7">
-        <v>20527</v>
+        <v>26419</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>259</v>
+        <v>313</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>260</v>
+        <v>314</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>261</v>
+        <v>315</v>
       </c>
       <c r="H8" s="7">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="I8" s="7">
-        <v>19303</v>
+        <v>31690</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>262</v>
+        <v>316</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>263</v>
+        <v>317</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>264</v>
+        <v>318</v>
       </c>
       <c r="M8" s="7">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="N8" s="7">
-        <v>39830</v>
+        <v>58108</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>265</v>
+        <v>319</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>266</v>
+        <v>320</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>267</v>
+        <v>321</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3955,10 +4674,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D9" s="7">
-        <v>51987</v>
+        <v>46002</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3970,10 +4689,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="I9" s="7">
-        <v>54603</v>
+        <v>44744</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3985,10 +4704,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="N9" s="7">
-        <v>106590</v>
+        <v>90746</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4008,49 +4727,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="D10" s="7">
-        <v>60462</v>
+        <v>11530</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>268</v>
+        <v>322</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>269</v>
+        <v>323</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>270</v>
+        <v>324</v>
       </c>
       <c r="H10" s="7">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="I10" s="7">
-        <v>52905</v>
+        <v>18359</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>272</v>
+        <v>326</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>273</v>
+        <v>327</v>
       </c>
       <c r="M10" s="7">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="N10" s="7">
-        <v>113366</v>
+        <v>29888</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>274</v>
+        <v>328</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>275</v>
+        <v>329</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>276</v>
+        <v>330</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4059,49 +4778,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D11" s="7">
-        <v>24218</v>
+        <v>32053</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>277</v>
+        <v>331</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>278</v>
+        <v>332</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>279</v>
+        <v>333</v>
       </c>
       <c r="H11" s="7">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I11" s="7">
-        <v>20705</v>
+        <v>18544</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>280</v>
+        <v>334</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>281</v>
+        <v>335</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>282</v>
+        <v>336</v>
       </c>
       <c r="M11" s="7">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="N11" s="7">
-        <v>44924</v>
+        <v>50598</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>283</v>
+        <v>337</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>284</v>
+        <v>338</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>285</v>
+        <v>339</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4110,10 +4829,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>107</v>
+        <v>56</v>
       </c>
       <c r="D12" s="7">
-        <v>84680</v>
+        <v>43583</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4125,10 +4844,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="I12" s="7">
-        <v>73610</v>
+        <v>36903</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4140,10 +4859,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>202</v>
+        <v>109</v>
       </c>
       <c r="N12" s="7">
-        <v>158290</v>
+        <v>80486</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4157,55 +4876,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>160</v>
+        <v>27</v>
       </c>
       <c r="D13" s="7">
-        <v>113642</v>
+        <v>20199</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>286</v>
+        <v>340</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>287</v>
+        <v>341</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>288</v>
+        <v>342</v>
       </c>
       <c r="H13" s="7">
-        <v>144</v>
+        <v>16</v>
       </c>
       <c r="I13" s="7">
-        <v>103225</v>
+        <v>11377</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>289</v>
+        <v>343</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>290</v>
+        <v>344</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>291</v>
+        <v>345</v>
       </c>
       <c r="M13" s="7">
-        <v>304</v>
+        <v>43</v>
       </c>
       <c r="N13" s="7">
-        <v>216866</v>
+        <v>31576</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>292</v>
+        <v>346</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>293</v>
+        <v>347</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>294</v>
+        <v>348</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4214,49 +4933,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="D14" s="7">
-        <v>58895</v>
+        <v>41817</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>295</v>
+        <v>349</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>296</v>
+        <v>350</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>297</v>
+        <v>351</v>
       </c>
       <c r="H14" s="7">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="I14" s="7">
-        <v>51187</v>
+        <v>45445</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>298</v>
+        <v>352</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>299</v>
+        <v>353</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>300</v>
+        <v>354</v>
       </c>
       <c r="M14" s="7">
-        <v>172</v>
+        <v>105</v>
       </c>
       <c r="N14" s="7">
-        <v>110082</v>
+        <v>87263</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>301</v>
+        <v>355</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>302</v>
+        <v>356</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>303</v>
+        <v>357</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4265,55 +4984,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>77</v>
+      </c>
+      <c r="D15" s="7">
+        <v>62016</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>71</v>
+      </c>
+      <c r="I15" s="7">
+        <v>56822</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>148</v>
+      </c>
+      <c r="N15" s="7">
+        <v>118839</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>90</v>
+      </c>
+      <c r="D16" s="7">
+        <v>58895</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="H16" s="7">
+        <v>82</v>
+      </c>
+      <c r="I16" s="7">
+        <v>51187</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="M16" s="7">
+        <v>172</v>
+      </c>
+      <c r="N16" s="7">
+        <v>110082</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>160</v>
+      </c>
+      <c r="D17" s="7">
+        <v>113642</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="H17" s="7">
+        <v>144</v>
+      </c>
+      <c r="I17" s="7">
+        <v>103225</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="M17" s="7">
+        <v>304</v>
+      </c>
+      <c r="N17" s="7">
+        <v>216866</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>250</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>172537</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>226</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>154412</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
         <v>476</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>326948</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/iP16_n_R2-Edad-trans_orig.xlsx
+++ b/data/trans_orig/iP16_n_R2-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8F060FF-10D4-40B7-96E2-0F1AA438D19B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{47383E39-4CED-4D7E-8B01-4639C752A8E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1EFEDF17-6F3C-4CED-B4D3-BDBB3661C9D4}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5629E557-A863-473C-B13C-B64B59C88EC1}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="378">
   <si>
     <t>Menores según si consumen más de dos medicamentos en 2007 (Tasa respuesta: 19,25%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>28,78%</t>
   </si>
   <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>43,74%</t>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>44,84%</t>
   </si>
   <si>
     <t>26,48%</t>
   </si>
   <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>41,67%</t>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
   </si>
   <si>
     <t>27,64%</t>
   </si>
   <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>37,83%</t>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>38,22%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>71,22%</t>
   </si>
   <si>
-    <t>56,26%</t>
-  </si>
-  <si>
-    <t>83,29%</t>
+    <t>55,16%</t>
+  </si>
+  <si>
+    <t>83,66%</t>
   </si>
   <si>
     <t>73,52%</t>
   </si>
   <si>
-    <t>58,33%</t>
-  </si>
-  <si>
-    <t>83,76%</t>
+    <t>60,73%</t>
+  </si>
+  <si>
+    <t>84,95%</t>
   </si>
   <si>
     <t>72,36%</t>
   </si>
   <si>
-    <t>62,17%</t>
-  </si>
-  <si>
-    <t>80,44%</t>
+    <t>61,78%</t>
+  </si>
+  <si>
+    <t>80,94%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>41,15%</t>
   </si>
   <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>52,36%</t>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>53,31%</t>
   </si>
   <si>
     <t>41,02%</t>
   </si>
   <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>52,76%</t>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>52,77%</t>
   </si>
   <si>
     <t>41,09%</t>
   </si>
   <si>
-    <t>33,31%</t>
-  </si>
-  <si>
-    <t>49,1%</t>
+    <t>33,46%</t>
+  </si>
+  <si>
+    <t>49,59%</t>
   </si>
   <si>
     <t>58,85%</t>
   </si>
   <si>
-    <t>47,64%</t>
-  </si>
-  <si>
-    <t>69,16%</t>
+    <t>46,69%</t>
+  </si>
+  <si>
+    <t>68,46%</t>
   </si>
   <si>
     <t>58,98%</t>
   </si>
   <si>
-    <t>47,24%</t>
-  </si>
-  <si>
-    <t>70,08%</t>
+    <t>47,23%</t>
+  </si>
+  <si>
+    <t>70,68%</t>
   </si>
   <si>
     <t>58,91%</t>
   </si>
   <si>
-    <t>50,9%</t>
-  </si>
-  <si>
-    <t>66,69%</t>
+    <t>50,41%</t>
+  </si>
+  <si>
+    <t>66,54%</t>
   </si>
   <si>
     <t>8-11</t>
@@ -197,937 +197,943 @@
     <t>41,96%</t>
   </si>
   <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>58,62%</t>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>59,4%</t>
   </si>
   <si>
     <t>38,86%</t>
   </si>
   <si>
-    <t>23,9%</t>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>40,45%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>52,63%</t>
+  </si>
+  <si>
+    <t>58,04%</t>
+  </si>
+  <si>
+    <t>40,6%</t>
+  </si>
+  <si>
+    <t>74,63%</t>
+  </si>
+  <si>
+    <t>61,14%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>75,94%</t>
+  </si>
+  <si>
+    <t>59,55%</t>
+  </si>
+  <si>
+    <t>47,37%</t>
+  </si>
+  <si>
+    <t>70,56%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>45,0%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>58,69%</t>
+  </si>
+  <si>
+    <t>45,09%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>45,04%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>53,94%</t>
+  </si>
+  <si>
+    <t>55,0%</t>
+  </si>
+  <si>
+    <t>41,31%</t>
+  </si>
+  <si>
+    <t>66,47%</t>
+  </si>
+  <si>
+    <t>54,91%</t>
+  </si>
+  <si>
+    <t>68,56%</t>
+  </si>
+  <si>
+    <t>54,96%</t>
+  </si>
+  <si>
+    <t>46,06%</t>
+  </si>
+  <si>
+    <t>64,25%</t>
+  </si>
+  <si>
+    <t>39,79%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>46,54%</t>
+  </si>
+  <si>
+    <t>38,26%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>45,21%</t>
+  </si>
+  <si>
+    <t>39,08%</t>
+  </si>
+  <si>
+    <t>34,53%</t>
+  </si>
+  <si>
+    <t>43,54%</t>
+  </si>
+  <si>
+    <t>60,21%</t>
+  </si>
+  <si>
+    <t>53,46%</t>
+  </si>
+  <si>
+    <t>66,79%</t>
+  </si>
+  <si>
+    <t>61,74%</t>
+  </si>
+  <si>
+    <t>54,79%</t>
+  </si>
+  <si>
+    <t>68,65%</t>
+  </si>
+  <si>
+    <t>60,92%</t>
+  </si>
+  <si>
+    <t>56,46%</t>
+  </si>
+  <si>
+    <t>65,47%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si consumen más de dos medicamentos en 2012 (Tasa respuesta: 20,77%)</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>29,95%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>83,35%</t>
+  </si>
+  <si>
+    <t>70,05%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>80,37%</t>
+  </si>
+  <si>
+    <t>68,17%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
+  </si>
+  <si>
+    <t>81,9%</t>
+  </si>
+  <si>
+    <t>72,61%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>79,86%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>82,84%</t>
+  </si>
+  <si>
+    <t>71,69%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>85,28%</t>
+  </si>
+  <si>
+    <t>79,21%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>77,28%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>77,49%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>82,23%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>41,76%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>82,26%</t>
+  </si>
+  <si>
+    <t>68,37%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>75,15%</t>
+  </si>
+  <si>
+    <t>58,24%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
+  </si>
+  <si>
+    <t>78,55%</t>
+  </si>
+  <si>
+    <t>68,52%</t>
+  </si>
+  <si>
+    <t>86,7%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>86,22%</t>
+  </si>
+  <si>
+    <t>81,2%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>82,08%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
+  </si>
+  <si>
+    <t>80,38%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>Menores según si consumen más de dos medicamentos en 2016 (Tasa respuesta: 17,45%)</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>40,71%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>75,22%</t>
+  </si>
+  <si>
+    <t>59,29%</t>
+  </si>
+  <si>
+    <t>86,44%</t>
+  </si>
+  <si>
+    <t>83,82%</t>
+  </si>
+  <si>
+    <t>70,5%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>79,78%</t>
+  </si>
+  <si>
+    <t>69,99%</t>
+  </si>
+  <si>
+    <t>87,55%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>82,09%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>85,43%</t>
+  </si>
+  <si>
+    <t>74,55%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>81,86%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>76,72%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
+  </si>
+  <si>
+    <t>77,09%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>88,64%</t>
+  </si>
+  <si>
+    <t>82,27%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>85,27%</t>
+  </si>
+  <si>
+    <t>69,18%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>79,68%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
+  </si>
+  <si>
+    <t>80,56%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
+  </si>
+  <si>
+    <t>80,69%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>87,46%</t>
+  </si>
+  <si>
+    <t>82,4%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>86,84%</t>
+  </si>
+  <si>
+    <t>83,12%</t>
+  </si>
+  <si>
+    <t>89,86%</t>
+  </si>
+  <si>
+    <t>Menores según si consumen más de dos medicamentos en 2023 (Tasa respuesta: 24,79%)</t>
+  </si>
+  <si>
+    <t>36,22%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>53,42%</t>
+  </si>
+  <si>
+    <t>52,67%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>71,62%</t>
+  </si>
+  <si>
+    <t>43,33%</t>
+  </si>
+  <si>
+    <t>33,09%</t>
   </si>
   <si>
     <t>55,84%</t>
   </si>
   <si>
-    <t>40,45%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>51,54%</t>
-  </si>
-  <si>
-    <t>58,04%</t>
-  </si>
-  <si>
-    <t>41,38%</t>
-  </si>
-  <si>
-    <t>74,05%</t>
-  </si>
-  <si>
-    <t>61,14%</t>
+    <t>63,78%</t>
+  </si>
+  <si>
+    <t>46,58%</t>
+  </si>
+  <si>
+    <t>75,63%</t>
+  </si>
+  <si>
+    <t>47,33%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>66,28%</t>
+  </si>
+  <si>
+    <t>56,67%</t>
   </si>
   <si>
     <t>44,16%</t>
   </si>
   <si>
-    <t>76,1%</t>
-  </si>
-  <si>
-    <t>59,55%</t>
-  </si>
-  <si>
-    <t>48,46%</t>
-  </si>
-  <si>
-    <t>70,85%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>45,0%</t>
-  </si>
-  <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>60,29%</t>
-  </si>
-  <si>
-    <t>45,09%</t>
-  </si>
-  <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>60,98%</t>
-  </si>
-  <si>
-    <t>45,04%</t>
-  </si>
-  <si>
-    <t>35,76%</t>
-  </si>
-  <si>
-    <t>55,02%</t>
-  </si>
-  <si>
-    <t>55,0%</t>
-  </si>
-  <si>
-    <t>39,71%</t>
-  </si>
-  <si>
-    <t>66,95%</t>
-  </si>
-  <si>
-    <t>54,91%</t>
-  </si>
-  <si>
-    <t>39,02%</t>
-  </si>
-  <si>
-    <t>67,95%</t>
-  </si>
-  <si>
-    <t>54,96%</t>
-  </si>
-  <si>
-    <t>44,98%</t>
-  </si>
-  <si>
-    <t>64,24%</t>
-  </si>
-  <si>
-    <t>39,79%</t>
-  </si>
-  <si>
-    <t>33,12%</t>
-  </si>
-  <si>
-    <t>46,62%</t>
-  </si>
-  <si>
-    <t>38,26%</t>
-  </si>
-  <si>
-    <t>45,45%</t>
-  </si>
-  <si>
-    <t>39,08%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>43,63%</t>
-  </si>
-  <si>
-    <t>60,21%</t>
-  </si>
-  <si>
-    <t>53,38%</t>
-  </si>
-  <si>
-    <t>66,88%</t>
-  </si>
-  <si>
-    <t>61,74%</t>
-  </si>
-  <si>
-    <t>54,55%</t>
-  </si>
-  <si>
-    <t>60,92%</t>
-  </si>
-  <si>
-    <t>56,37%</t>
-  </si>
-  <si>
-    <t>65,59%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si consumen más de dos medicamentos en 2012 (Tasa respuesta: 20,77%)</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>31,67%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>83,35%</t>
-  </si>
-  <si>
-    <t>70,86%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>80,37%</t>
-  </si>
-  <si>
-    <t>68,33%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>81,9%</t>
-  </si>
-  <si>
-    <t>73,84%</t>
-  </si>
-  <si>
-    <t>88,62%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>78,38%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>82,84%</t>
-  </si>
-  <si>
-    <t>71,65%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>85,28%</t>
-  </si>
-  <si>
-    <t>79,2%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>76,69%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>77,72%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>90,13%</t>
-  </si>
-  <si>
-    <t>80,72%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>40,39%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>82,26%</t>
-  </si>
-  <si>
-    <t>66,99%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
-  </si>
-  <si>
-    <t>75,15%</t>
-  </si>
-  <si>
-    <t>59,61%</t>
-  </si>
-  <si>
-    <t>87,47%</t>
-  </si>
-  <si>
-    <t>78,55%</t>
-  </si>
-  <si>
-    <t>67,53%</t>
-  </si>
-  <si>
-    <t>86,24%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>86,22%</t>
-  </si>
-  <si>
-    <t>81,19%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>82,08%</t>
-  </si>
-  <si>
-    <t>76,51%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
-  </si>
-  <si>
-    <t>80,61%</t>
-  </si>
-  <si>
-    <t>87,33%</t>
-  </si>
-  <si>
-    <t>Menores según si consumen más de dos medicamentos en 2015 (Tasa respuesta: 17,45%)</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>40,74%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>75,22%</t>
-  </si>
-  <si>
-    <t>59,26%</t>
-  </si>
-  <si>
-    <t>88,26%</t>
-  </si>
-  <si>
-    <t>83,82%</t>
-  </si>
-  <si>
-    <t>69,84%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>79,78%</t>
-  </si>
-  <si>
-    <t>68,99%</t>
-  </si>
-  <si>
-    <t>87,42%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>80,99%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>85,43%</t>
-  </si>
-  <si>
-    <t>73,02%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
-  </si>
-  <si>
-    <t>81,75%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>77,43%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
-  </si>
-  <si>
-    <t>77,24%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>85,27%</t>
-  </si>
-  <si>
-    <t>69,3%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>78,51%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
-  </si>
-  <si>
-    <t>79,45%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>81,1%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>87,46%</t>
-  </si>
-  <si>
-    <t>81,88%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>86,84%</t>
-  </si>
-  <si>
-    <t>83,21%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>Menores según si consumen más de dos medicamentos en 2023 (Tasa respuesta: 24,79%)</t>
-  </si>
-  <si>
-    <t>36,22%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>51,31%</t>
-  </si>
-  <si>
-    <t>52,67%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>72,46%</t>
-  </si>
-  <si>
-    <t>43,33%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>54,53%</t>
-  </si>
-  <si>
-    <t>63,78%</t>
-  </si>
-  <si>
-    <t>48,69%</t>
-  </si>
-  <si>
-    <t>77,52%</t>
-  </si>
-  <si>
-    <t>47,33%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>65,46%</t>
-  </si>
-  <si>
-    <t>56,67%</t>
-  </si>
-  <si>
-    <t>45,47%</t>
-  </si>
-  <si>
-    <t>69,13%</t>
+    <t>66,91%</t>
   </si>
   <si>
     <t>42,57%</t>
   </si>
   <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>56,18%</t>
+    <t>31,45%</t>
+  </si>
+  <si>
+    <t>54,58%</t>
   </si>
   <si>
     <t>29,18%</t>
   </si>
   <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>41,35%</t>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>42,97%</t>
   </si>
   <si>
     <t>35,97%</t>
   </si>
   <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>43,99%</t>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>44,97%</t>
   </si>
   <si>
     <t>57,43%</t>
   </si>
   <si>
-    <t>43,82%</t>
-  </si>
-  <si>
-    <t>68,08%</t>
+    <t>45,42%</t>
+  </si>
+  <si>
+    <t>68,55%</t>
   </si>
   <si>
     <t>70,82%</t>
   </si>
   <si>
-    <t>58,65%</t>
-  </si>
-  <si>
-    <t>81,69%</t>
+    <t>57,03%</t>
+  </si>
+  <si>
+    <t>80,14%</t>
   </si>
   <si>
     <t>64,03%</t>
   </si>
   <si>
-    <t>56,01%</t>
-  </si>
-  <si>
-    <t>71,21%</t>
+    <t>55,03%</t>
+  </si>
+  <si>
+    <t>71,64%</t>
   </si>
   <si>
     <t>26,45%</t>
   </si>
   <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>40,23%</t>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>40,67%</t>
   </si>
   <si>
     <t>49,75%</t>
   </si>
   <si>
-    <t>36,67%</t>
-  </si>
-  <si>
-    <t>63,16%</t>
+    <t>36,81%</t>
+  </si>
+  <si>
+    <t>63,25%</t>
   </si>
   <si>
     <t>37,13%</t>
   </si>
   <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>46,56%</t>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>45,9%</t>
   </si>
   <si>
     <t>73,55%</t>
   </si>
   <si>
-    <t>59,77%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
+    <t>59,33%</t>
+  </si>
+  <si>
+    <t>84,24%</t>
   </si>
   <si>
     <t>50,25%</t>
   </si>
   <si>
-    <t>36,84%</t>
-  </si>
-  <si>
-    <t>63,33%</t>
+    <t>36,75%</t>
+  </si>
+  <si>
+    <t>63,19%</t>
   </si>
   <si>
     <t>62,87%</t>
   </si>
   <si>
-    <t>53,44%</t>
-  </si>
-  <si>
-    <t>71,71%</t>
+    <t>54,1%</t>
+  </si>
+  <si>
+    <t>71,73%</t>
   </si>
   <si>
     <t>32,57%</t>
   </si>
   <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>45,65%</t>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>44,67%</t>
   </si>
   <si>
     <t>20,02%</t>
   </si>
   <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
   </si>
   <si>
     <t>26,57%</t>
   </si>
   <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>34,87%</t>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>34,74%</t>
   </si>
   <si>
     <t>67,43%</t>
   </si>
   <si>
-    <t>54,35%</t>
-  </si>
-  <si>
-    <t>76,87%</t>
+    <t>55,33%</t>
+  </si>
+  <si>
+    <t>77,38%</t>
   </si>
   <si>
     <t>79,98%</t>
   </si>
   <si>
-    <t>67,9%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
+    <t>66,81%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
   </si>
   <si>
     <t>73,43%</t>
   </si>
   <si>
-    <t>65,13%</t>
-  </si>
-  <si>
-    <t>81,48%</t>
+    <t>65,26%</t>
+  </si>
+  <si>
+    <t>81,0%</t>
   </si>
   <si>
     <t>34,13%</t>
   </si>
   <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>40,48%</t>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>40,5%</t>
   </si>
   <si>
     <t>33,15%</t>
   </si>
   <si>
-    <t>26,1%</t>
+    <t>26,2%</t>
   </si>
   <si>
     <t>39,89%</t>
@@ -1136,19 +1142,19 @@
     <t>33,67%</t>
   </si>
   <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>38,75%</t>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>38,68%</t>
   </si>
   <si>
     <t>65,87%</t>
   </si>
   <si>
-    <t>59,52%</t>
-  </si>
-  <si>
-    <t>72,31%</t>
+    <t>59,5%</t>
+  </si>
+  <si>
+    <t>71,52%</t>
   </si>
   <si>
     <t>66,85%</t>
@@ -1157,16 +1163,16 @@
     <t>60,11%</t>
   </si>
   <si>
-    <t>73,9%</t>
+    <t>73,8%</t>
   </si>
   <si>
     <t>66,33%</t>
   </si>
   <si>
-    <t>61,25%</t>
-  </si>
-  <si>
-    <t>70,88%</t>
+    <t>61,32%</t>
+  </si>
+  <si>
+    <t>70,76%</t>
   </si>
 </sst>
 </file>
@@ -1578,7 +1584,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7AB8707-D197-47D1-95AC-B93AC497E322}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2D2D0F9-CCB8-4C15-8634-3EDD99326A93}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2188,7 +2194,7 @@
         <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="M13" s="7">
         <v>46</v>
@@ -2197,13 +2203,13 @@
         <v>31519</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2218,13 +2224,13 @@
         <v>21691</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>25</v>
@@ -2233,13 +2239,13 @@
         <v>16772</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>58</v>
@@ -2248,13 +2254,13 @@
         <v>38462</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2322,13 +2328,13 @@
         <v>57263</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H16" s="7">
         <v>72</v>
@@ -2337,13 +2343,13 @@
         <v>47937</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M16" s="7">
         <v>156</v>
@@ -2352,13 +2358,13 @@
         <v>105200</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2373,13 +2379,13 @@
         <v>86656</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="H17" s="7">
         <v>118</v>
@@ -2388,13 +2394,13 @@
         <v>77368</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M17" s="7">
         <v>249</v>
@@ -2485,7 +2491,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D72EDF13-08D5-4C60-AE22-AE40772F74FC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F23CAA1-9014-4671-A835-CFA086166AC7}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3392,7 +3398,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FA681C3-4C9E-40DC-A926-6A57A8C440B4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02451D36-8538-4070-911D-2DFECF0B877A}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3862,7 +3868,7 @@
         <v>240</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>109</v>
+        <v>241</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3877,13 +3883,13 @@
         <v>29709</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H11" s="7">
         <v>46</v>
@@ -3892,13 +3898,13 @@
         <v>31958</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M11" s="7">
         <v>88</v>
@@ -3907,13 +3913,13 @@
         <v>61667</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>118</v>
+        <v>249</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3981,13 +3987,13 @@
         <v>3352</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -3996,13 +4002,13 @@
         <v>1296</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
@@ -4011,13 +4017,13 @@
         <v>4648</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4032,13 +4038,13 @@
         <v>19406</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="H14" s="7">
         <v>29</v>
@@ -4047,13 +4053,13 @@
         <v>20769</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="M14" s="7">
         <v>55</v>
@@ -4062,13 +4068,13 @@
         <v>40175</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4136,13 +4142,13 @@
         <v>16998</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="H16" s="7">
         <v>25</v>
@@ -4151,13 +4157,13 @@
         <v>15989</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="M16" s="7">
         <v>51</v>
@@ -4166,13 +4172,13 @@
         <v>32987</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4187,13 +4193,13 @@
         <v>106278</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="H17" s="7">
         <v>167</v>
@@ -4202,13 +4208,13 @@
         <v>111472</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="M17" s="7">
         <v>320</v>
@@ -4217,13 +4223,13 @@
         <v>217750</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4299,7 +4305,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9423053-E5C5-4C8E-A32C-5F32F9B934FA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE463550-04B3-419F-BE04-8DEA4B96EDB8}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4316,7 +4322,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4423,13 +4429,13 @@
         <v>7583</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="H4" s="7">
         <v>16</v>
@@ -4438,13 +4444,13 @@
         <v>8396</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="M4" s="7">
         <v>34</v>
@@ -4453,13 +4459,13 @@
         <v>15980</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4474,13 +4480,13 @@
         <v>13352</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="H5" s="7">
         <v>14</v>
@@ -4489,13 +4495,13 @@
         <v>7546</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="M5" s="7">
         <v>38</v>
@@ -4504,13 +4510,13 @@
         <v>20897</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4578,13 +4584,13 @@
         <v>19583</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="H7" s="7">
         <v>23</v>
@@ -4593,13 +4599,13 @@
         <v>13054</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="M7" s="7">
         <v>55</v>
@@ -4608,13 +4614,13 @@
         <v>32638</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4629,13 +4635,13 @@
         <v>26419</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="H8" s="7">
         <v>49</v>
@@ -4644,13 +4650,13 @@
         <v>31690</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="M8" s="7">
         <v>92</v>
@@ -4659,13 +4665,13 @@
         <v>58108</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4733,13 +4739,13 @@
         <v>11530</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="H10" s="7">
         <v>27</v>
@@ -4748,13 +4754,13 @@
         <v>18359</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="M10" s="7">
         <v>40</v>
@@ -4763,13 +4769,13 @@
         <v>29888</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4784,13 +4790,13 @@
         <v>32053</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="H11" s="7">
         <v>26</v>
@@ -4799,13 +4805,13 @@
         <v>18544</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="M11" s="7">
         <v>69</v>
@@ -4814,13 +4820,13 @@
         <v>50598</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4888,13 +4894,13 @@
         <v>20199</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="H13" s="7">
         <v>16</v>
@@ -4903,13 +4909,13 @@
         <v>11377</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="M13" s="7">
         <v>43</v>
@@ -4918,13 +4924,13 @@
         <v>31576</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4939,13 +4945,13 @@
         <v>41817</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="H14" s="7">
         <v>55</v>
@@ -4954,13 +4960,13 @@
         <v>45445</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="M14" s="7">
         <v>105</v>
@@ -4969,13 +4975,13 @@
         <v>87263</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5043,13 +5049,13 @@
         <v>58895</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="H16" s="7">
         <v>82</v>
@@ -5058,13 +5064,13 @@
         <v>51187</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="M16" s="7">
         <v>172</v>
@@ -5073,13 +5079,13 @@
         <v>110082</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5094,13 +5100,13 @@
         <v>113642</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="H17" s="7">
         <v>144</v>
@@ -5109,13 +5115,13 @@
         <v>103225</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="M17" s="7">
         <v>304</v>
@@ -5124,13 +5130,13 @@
         <v>216866</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/iP16_n_R2-Edad-trans_orig.xlsx
+++ b/data/trans_orig/iP16_n_R2-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{47383E39-4CED-4D7E-8B01-4639C752A8E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E36390A7-955C-4C2C-A3C9-E6B44298A299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5629E557-A863-473C-B13C-B64B59C88EC1}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{4AB82F40-B1CE-45F0-AE0A-8A58E67DBF63}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -44,10 +44,10 @@
     <t>Menores según si consumen más de dos medicamentos en 2007 (Tasa respuesta: 19,25%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -74,61 +74,61 @@
     <t>Sí</t>
   </si>
   <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>39,97%</t>
+  </si>
+  <si>
     <t>28,78%</t>
   </si>
   <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>44,84%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>43,38%</t>
   </si>
   <si>
     <t>27,64%</t>
   </si>
   <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>38,22%</t>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
+    <t>73,52%</t>
+  </si>
+  <si>
+    <t>60,03%</t>
+  </si>
+  <si>
+    <t>85,74%</t>
+  </si>
+  <si>
     <t>71,22%</t>
   </si>
   <si>
-    <t>55,16%</t>
-  </si>
-  <si>
-    <t>83,66%</t>
-  </si>
-  <si>
-    <t>73,52%</t>
-  </si>
-  <si>
-    <t>60,73%</t>
-  </si>
-  <si>
-    <t>84,95%</t>
+    <t>56,62%</t>
+  </si>
+  <si>
+    <t>83,45%</t>
   </si>
   <si>
     <t>72,36%</t>
   </si>
   <si>
-    <t>61,78%</t>
-  </si>
-  <si>
-    <t>80,94%</t>
+    <t>62,84%</t>
+  </si>
+  <si>
+    <t>80,86%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,22 +137,22 @@
     <t>3-7</t>
   </si>
   <si>
+    <t>41,02%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>52,81%</t>
+  </si>
+  <si>
     <t>41,15%</t>
   </si>
   <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>53,31%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>52,77%</t>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>52,23%</t>
   </si>
   <si>
     <t>41,09%</t>
@@ -161,31 +161,31 @@
     <t>33,46%</t>
   </si>
   <si>
-    <t>49,59%</t>
+    <t>49,09%</t>
+  </si>
+  <si>
+    <t>58,98%</t>
+  </si>
+  <si>
+    <t>47,19%</t>
+  </si>
+  <si>
+    <t>70,02%</t>
   </si>
   <si>
     <t>58,85%</t>
   </si>
   <si>
-    <t>46,69%</t>
-  </si>
-  <si>
-    <t>68,46%</t>
-  </si>
-  <si>
-    <t>58,98%</t>
-  </si>
-  <si>
-    <t>47,23%</t>
-  </si>
-  <si>
-    <t>70,68%</t>
+    <t>47,77%</t>
+  </si>
+  <si>
+    <t>70,33%</t>
   </si>
   <si>
     <t>58,91%</t>
   </si>
   <si>
-    <t>50,41%</t>
+    <t>50,91%</t>
   </si>
   <si>
     <t>66,54%</t>
@@ -194,163 +194,169 @@
     <t>8-11</t>
   </si>
   <si>
+    <t>38,86%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>55,15%</t>
+  </si>
+  <si>
     <t>41,96%</t>
   </si>
   <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>59,4%</t>
-  </si>
-  <si>
-    <t>38,86%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>57,82%</t>
   </si>
   <si>
     <t>40,45%</t>
   </si>
   <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>52,63%</t>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>52,88%</t>
+  </si>
+  <si>
+    <t>61,14%</t>
+  </si>
+  <si>
+    <t>44,85%</t>
+  </si>
+  <si>
+    <t>77,32%</t>
   </si>
   <si>
     <t>58,04%</t>
   </si>
   <si>
-    <t>40,6%</t>
-  </si>
-  <si>
-    <t>74,63%</t>
-  </si>
-  <si>
-    <t>61,14%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>75,94%</t>
+    <t>42,18%</t>
+  </si>
+  <si>
+    <t>73,12%</t>
   </si>
   <si>
     <t>59,55%</t>
   </si>
   <si>
-    <t>47,37%</t>
-  </si>
-  <si>
-    <t>70,56%</t>
+    <t>47,12%</t>
+  </si>
+  <si>
+    <t>70,06%</t>
   </si>
   <si>
     <t>12-15</t>
   </si>
   <si>
+    <t>45,09%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>61,34%</t>
+  </si>
+  <si>
     <t>45,0%</t>
   </si>
   <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>58,69%</t>
-  </si>
-  <si>
-    <t>45,09%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>57,52%</t>
   </si>
   <si>
     <t>45,04%</t>
   </si>
   <si>
-    <t>35,75%</t>
-  </si>
-  <si>
-    <t>53,94%</t>
+    <t>36,24%</t>
+  </si>
+  <si>
+    <t>55,39%</t>
+  </si>
+  <si>
+    <t>54,91%</t>
+  </si>
+  <si>
+    <t>38,66%</t>
+  </si>
+  <si>
+    <t>67,5%</t>
   </si>
   <si>
     <t>55,0%</t>
   </si>
   <si>
-    <t>41,31%</t>
-  </si>
-  <si>
-    <t>66,47%</t>
-  </si>
-  <si>
-    <t>54,91%</t>
-  </si>
-  <si>
-    <t>68,56%</t>
+    <t>42,48%</t>
+  </si>
+  <si>
+    <t>66,81%</t>
   </si>
   <si>
     <t>54,96%</t>
   </si>
   <si>
-    <t>46,06%</t>
-  </si>
-  <si>
-    <t>64,25%</t>
+    <t>44,61%</t>
+  </si>
+  <si>
+    <t>63,76%</t>
+  </si>
+  <si>
+    <t>38,26%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>45,53%</t>
   </si>
   <si>
     <t>39,79%</t>
   </si>
   <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>46,54%</t>
-  </si>
-  <si>
-    <t>38,26%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>45,21%</t>
+    <t>33,39%</t>
+  </si>
+  <si>
+    <t>46,14%</t>
   </si>
   <si>
     <t>39,08%</t>
   </si>
   <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>43,54%</t>
+    <t>34,4%</t>
+  </si>
+  <si>
+    <t>44,24%</t>
+  </si>
+  <si>
+    <t>61,74%</t>
+  </si>
+  <si>
+    <t>54,47%</t>
+  </si>
+  <si>
+    <t>68,78%</t>
   </si>
   <si>
     <t>60,21%</t>
   </si>
   <si>
-    <t>53,46%</t>
-  </si>
-  <si>
-    <t>66,79%</t>
-  </si>
-  <si>
-    <t>61,74%</t>
-  </si>
-  <si>
-    <t>54,79%</t>
-  </si>
-  <si>
-    <t>68,65%</t>
+    <t>53,86%</t>
+  </si>
+  <si>
+    <t>66,61%</t>
   </si>
   <si>
     <t>60,92%</t>
   </si>
   <si>
-    <t>56,46%</t>
-  </si>
-  <si>
-    <t>65,47%</t>
+    <t>55,76%</t>
+  </si>
+  <si>
+    <t>65,6%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -359,820 +365,814 @@
     <t>Menores según si consumen más de dos medicamentos en 2012 (Tasa respuesta: 20,77%)</t>
   </si>
   <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
     <t>16,65%</t>
   </si>
   <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>29,95%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>31,83%</t>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
   </si>
   <si>
     <t>18,1%</t>
   </si>
   <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>80,37%</t>
+  </si>
+  <si>
+    <t>67,85%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
   </si>
   <si>
     <t>83,35%</t>
   </si>
   <si>
-    <t>70,05%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>80,37%</t>
-  </si>
-  <si>
-    <t>68,17%</t>
-  </si>
-  <si>
-    <t>89,75%</t>
+    <t>71,2%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
   </si>
   <si>
     <t>81,9%</t>
   </si>
   <si>
-    <t>72,61%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
+    <t>73,41%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
   </si>
   <si>
     <t>12,76%</t>
   </si>
   <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
   </si>
   <si>
     <t>14,72%</t>
   </si>
   <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>82,84%</t>
+  </si>
+  <si>
+    <t>72,81%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
   </si>
   <si>
     <t>87,24%</t>
   </si>
   <si>
-    <t>79,86%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>82,84%</t>
-  </si>
-  <si>
-    <t>71,69%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
+    <t>79,37%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
   </si>
   <si>
     <t>85,28%</t>
   </si>
   <si>
-    <t>79,21%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
+    <t>79,29%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
   </si>
   <si>
     <t>8,73%</t>
   </si>
   <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
   </si>
   <si>
     <t>9,87%</t>
   </si>
   <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>76,66%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>78,1%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>80,81%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>40,95%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>75,15%</t>
+  </si>
+  <si>
+    <t>59,05%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>82,26%</t>
+  </si>
+  <si>
+    <t>66,76%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>78,55%</t>
+  </si>
+  <si>
+    <t>68,69%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>82,08%</t>
+  </si>
+  <si>
+    <t>76,43%</t>
+  </si>
+  <si>
+    <t>86,87%</t>
+  </si>
+  <si>
+    <t>86,22%</t>
+  </si>
+  <si>
+    <t>81,06%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
+  </si>
+  <si>
+    <t>80,2%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>Menores según si consumen más de dos medicamentos en 2016 (Tasa respuesta: 17,45%)</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>40,72%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>83,82%</t>
+  </si>
+  <si>
+    <t>69,92%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>75,22%</t>
+  </si>
+  <si>
+    <t>59,28%</t>
+  </si>
+  <si>
+    <t>86,66%</t>
+  </si>
+  <si>
+    <t>79,78%</t>
+  </si>
+  <si>
+    <t>69,42%</t>
+  </si>
+  <si>
+    <t>87,28%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>85,43%</t>
+  </si>
+  <si>
+    <t>75,83%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>82,27%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>81,68%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
+  </si>
+  <si>
+    <t>77,47%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>76,15%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>88,64%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
     <t>4,39%</t>
   </si>
   <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>77,28%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>77,49%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>90,13%</t>
-  </si>
-  <si>
-    <t>82,23%</t>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>80,52%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>85,27%</t>
+  </si>
+  <si>
+    <t>68,9%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
+  </si>
+  <si>
+    <t>80,26%</t>
   </si>
   <si>
     <t>95,61%</t>
   </si>
   <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>41,76%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>82,26%</t>
-  </si>
-  <si>
-    <t>68,37%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>75,15%</t>
-  </si>
-  <si>
-    <t>58,24%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
-  </si>
-  <si>
-    <t>78,55%</t>
-  </si>
-  <si>
-    <t>68,52%</t>
-  </si>
-  <si>
-    <t>86,7%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>86,22%</t>
-  </si>
-  <si>
-    <t>81,2%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>82,08%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
-  </si>
-  <si>
-    <t>80,38%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>Menores según si consumen más de dos medicamentos en 2016 (Tasa respuesta: 17,45%)</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>40,71%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>75,22%</t>
-  </si>
-  <si>
-    <t>59,29%</t>
-  </si>
-  <si>
-    <t>86,44%</t>
-  </si>
-  <si>
-    <t>83,82%</t>
-  </si>
-  <si>
-    <t>70,5%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>79,78%</t>
-  </si>
-  <si>
-    <t>69,99%</t>
-  </si>
-  <si>
-    <t>87,55%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>82,09%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>85,43%</t>
-  </si>
-  <si>
-    <t>74,55%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
-  </si>
-  <si>
-    <t>81,86%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>76,72%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
-  </si>
-  <si>
-    <t>77,09%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
-  </si>
-  <si>
-    <t>82,27%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>85,27%</t>
-  </si>
-  <si>
-    <t>69,18%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>79,68%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
-  </si>
-  <si>
-    <t>80,56%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
   </si>
   <si>
     <t>13,79%</t>
   </si>
   <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
   </si>
   <si>
     <t>13,16%</t>
   </si>
   <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>87,46%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
   </si>
   <si>
     <t>86,21%</t>
   </si>
   <si>
-    <t>80,69%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>87,46%</t>
-  </si>
-  <si>
-    <t>82,4%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
+    <t>80,61%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
   </si>
   <si>
     <t>86,84%</t>
   </si>
   <si>
-    <t>83,12%</t>
-  </si>
-  <si>
-    <t>89,86%</t>
+    <t>82,89%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
   </si>
   <si>
     <t>Menores según si consumen más de dos medicamentos en 2023 (Tasa respuesta: 24,79%)</t>
   </si>
   <si>
-    <t>36,22%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>53,42%</t>
-  </si>
-  <si>
-    <t>52,67%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>71,62%</t>
-  </si>
-  <si>
-    <t>43,33%</t>
-  </si>
-  <si>
-    <t>33,09%</t>
-  </si>
-  <si>
-    <t>55,84%</t>
-  </si>
-  <si>
-    <t>63,78%</t>
-  </si>
-  <si>
-    <t>46,58%</t>
-  </si>
-  <si>
-    <t>75,63%</t>
-  </si>
-  <si>
-    <t>47,33%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>66,28%</t>
-  </si>
-  <si>
-    <t>56,67%</t>
-  </si>
-  <si>
-    <t>44,16%</t>
-  </si>
-  <si>
-    <t>66,91%</t>
-  </si>
-  <si>
-    <t>42,57%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
-  </si>
-  <si>
-    <t>54,58%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>42,97%</t>
-  </si>
-  <si>
-    <t>35,97%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>44,97%</t>
-  </si>
-  <si>
-    <t>57,43%</t>
-  </si>
-  <si>
-    <t>45,42%</t>
-  </si>
-  <si>
-    <t>68,55%</t>
-  </si>
-  <si>
-    <t>70,82%</t>
-  </si>
-  <si>
-    <t>57,03%</t>
-  </si>
-  <si>
-    <t>80,14%</t>
-  </si>
-  <si>
-    <t>64,03%</t>
-  </si>
-  <si>
-    <t>55,03%</t>
-  </si>
-  <si>
-    <t>71,64%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>40,67%</t>
+    <t>51,9%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>70,25%</t>
+  </si>
+  <si>
+    <t>34,9%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>50,25%</t>
+  </si>
+  <si>
+    <t>41,99%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>54,69%</t>
+  </si>
+  <si>
+    <t>48,1%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>68,39%</t>
+  </si>
+  <si>
+    <t>65,1%</t>
   </si>
   <si>
     <t>49,75%</t>
   </si>
   <si>
-    <t>36,81%</t>
-  </si>
-  <si>
-    <t>63,25%</t>
-  </si>
-  <si>
-    <t>37,13%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>45,9%</t>
-  </si>
-  <si>
-    <t>73,55%</t>
-  </si>
-  <si>
-    <t>59,33%</t>
-  </si>
-  <si>
-    <t>84,24%</t>
-  </si>
-  <si>
-    <t>50,25%</t>
-  </si>
-  <si>
-    <t>36,75%</t>
-  </si>
-  <si>
-    <t>63,19%</t>
-  </si>
-  <si>
-    <t>62,87%</t>
-  </si>
-  <si>
-    <t>54,1%</t>
-  </si>
-  <si>
-    <t>71,73%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>44,67%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>34,74%</t>
-  </si>
-  <si>
-    <t>67,43%</t>
-  </si>
-  <si>
-    <t>55,33%</t>
-  </si>
-  <si>
-    <t>77,38%</t>
-  </si>
-  <si>
-    <t>79,98%</t>
-  </si>
-  <si>
-    <t>66,81%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>73,43%</t>
-  </si>
-  <si>
-    <t>65,26%</t>
-  </si>
-  <si>
-    <t>81,0%</t>
-  </si>
-  <si>
-    <t>34,13%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>40,5%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>39,89%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>38,68%</t>
-  </si>
-  <si>
-    <t>65,87%</t>
-  </si>
-  <si>
-    <t>59,5%</t>
-  </si>
-  <si>
-    <t>71,52%</t>
-  </si>
-  <si>
-    <t>66,85%</t>
-  </si>
-  <si>
-    <t>60,11%</t>
-  </si>
-  <si>
-    <t>73,8%</t>
-  </si>
-  <si>
-    <t>66,33%</t>
-  </si>
-  <si>
-    <t>61,32%</t>
-  </si>
-  <si>
-    <t>70,76%</t>
+    <t>78,88%</t>
+  </si>
+  <si>
+    <t>58,01%</t>
+  </si>
+  <si>
+    <t>45,31%</t>
+  </si>
+  <si>
+    <t>68,4%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>39,33%</t>
+  </si>
+  <si>
+    <t>42,09%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>53,7%</t>
+  </si>
+  <si>
+    <t>35,18%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>43,37%</t>
+  </si>
+  <si>
+    <t>72,07%</t>
+  </si>
+  <si>
+    <t>60,67%</t>
+  </si>
+  <si>
+    <t>82,78%</t>
+  </si>
+  <si>
+    <t>57,91%</t>
+  </si>
+  <si>
+    <t>46,3%</t>
+  </si>
+  <si>
+    <t>69,65%</t>
+  </si>
+  <si>
+    <t>64,82%</t>
+  </si>
+  <si>
+    <t>56,63%</t>
+  </si>
+  <si>
+    <t>73,09%</t>
+  </si>
+  <si>
+    <t>48,97%</t>
+  </si>
+  <si>
+    <t>35,67%</t>
+  </si>
+  <si>
+    <t>64,18%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>38,65%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>45,66%</t>
+  </si>
+  <si>
+    <t>51,03%</t>
+  </si>
+  <si>
+    <t>35,82%</t>
+  </si>
+  <si>
+    <t>64,33%</t>
+  </si>
+  <si>
+    <t>74,34%</t>
+  </si>
+  <si>
+    <t>61,35%</t>
+  </si>
+  <si>
+    <t>85,94%</t>
+  </si>
+  <si>
+    <t>63,95%</t>
+  </si>
+  <si>
+    <t>54,34%</t>
+  </si>
+  <si>
+    <t>73,29%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>32,37%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>44,42%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>85,69%</t>
+  </si>
+  <si>
+    <t>72,54%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>67,63%</t>
+  </si>
+  <si>
+    <t>55,58%</t>
+  </si>
+  <si>
+    <t>78,18%</t>
+  </si>
+  <si>
+    <t>77,5%</t>
+  </si>
+  <si>
+    <t>68,1%</t>
+  </si>
+  <si>
+    <t>87,43%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>36,16%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>40,3%</t>
+  </si>
+  <si>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>71,49%</t>
+  </si>
+  <si>
+    <t>63,84%</t>
+  </si>
+  <si>
+    <t>83,1%</t>
+  </si>
+  <si>
+    <t>66,41%</t>
+  </si>
+  <si>
+    <t>59,7%</t>
+  </si>
+  <si>
+    <t>71,89%</t>
+  </si>
+  <si>
+    <t>68,92%</t>
+  </si>
+  <si>
+    <t>63,45%</t>
+  </si>
+  <si>
+    <t>75,56%</t>
   </si>
 </sst>
 </file>
@@ -1584,7 +1584,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2D2D0F9-CCB8-4C15-8634-3EDD99326A93}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{241BF605-8BB1-4336-91D7-D3BDD996774F}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1702,10 +1702,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" s="7">
-        <v>8534</v>
+        <v>7688</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1717,10 +1717,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I4" s="7">
-        <v>7688</v>
+        <v>8534</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1753,10 +1753,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D5" s="7">
-        <v>21121</v>
+        <v>21347</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1768,10 +1768,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I5" s="7">
-        <v>21347</v>
+        <v>21121</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1804,25 +1804,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>46</v>
+      </c>
+      <c r="D6" s="7">
+        <v>29035</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>44</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>29655</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>46</v>
-      </c>
-      <c r="I6" s="7">
-        <v>29035</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1857,10 +1857,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D7" s="7">
-        <v>20969</v>
+        <v>17731</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1872,10 +1872,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I7" s="7">
-        <v>17731</v>
+        <v>20969</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1908,10 +1908,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D8" s="7">
-        <v>29991</v>
+        <v>25490</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1923,10 +1923,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I8" s="7">
-        <v>25490</v>
+        <v>29991</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1959,25 +1959,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>66</v>
+      </c>
+      <c r="D9" s="7">
+        <v>43221</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>76</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>50960</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>66</v>
-      </c>
-      <c r="I9" s="7">
-        <v>43221</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2012,10 +2012,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D10" s="7">
-        <v>10013</v>
+        <v>8747</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -2027,10 +2027,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I10" s="7">
-        <v>8747</v>
+        <v>10013</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -2063,10 +2063,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D11" s="7">
-        <v>13853</v>
+        <v>13760</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -2078,10 +2078,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I11" s="7">
-        <v>13760</v>
+        <v>13853</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -2114,25 +2114,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>33</v>
+      </c>
+      <c r="D12" s="7">
+        <v>22507</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>36</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>23866</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>33</v>
-      </c>
-      <c r="I12" s="7">
-        <v>22507</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2167,10 +2167,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D13" s="7">
-        <v>17747</v>
+        <v>13771</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -2182,10 +2182,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I13" s="7">
-        <v>13771</v>
+        <v>17747</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -2194,7 +2194,7 @@
         <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>46</v>
@@ -2203,13 +2203,13 @@
         <v>31519</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2218,34 +2218,34 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>25</v>
+      </c>
+      <c r="D14" s="7">
+        <v>16772</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H14" s="7">
         <v>33</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>21691</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="H14" s="7">
-        <v>25</v>
-      </c>
-      <c r="I14" s="7">
-        <v>16772</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>58</v>
@@ -2254,13 +2254,13 @@
         <v>38462</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2269,25 +2269,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>45</v>
+      </c>
+      <c r="D15" s="7">
+        <v>30543</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>59</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>39438</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>45</v>
-      </c>
-      <c r="I15" s="7">
-        <v>30543</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2322,34 +2322,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>72</v>
+      </c>
+      <c r="D16" s="7">
+        <v>47937</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H16" s="7">
         <v>84</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>57263</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="H16" s="7">
-        <v>72</v>
-      </c>
-      <c r="I16" s="7">
-        <v>47937</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M16" s="7">
         <v>156</v>
@@ -2358,13 +2358,13 @@
         <v>105200</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2373,34 +2373,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>118</v>
+      </c>
+      <c r="D17" s="7">
+        <v>77368</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H17" s="7">
         <v>131</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>86656</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="H17" s="7">
-        <v>118</v>
-      </c>
-      <c r="I17" s="7">
-        <v>77368</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M17" s="7">
         <v>249</v>
@@ -2409,13 +2409,13 @@
         <v>164024</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2424,25 +2424,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>190</v>
+      </c>
+      <c r="D18" s="7">
+        <v>125305</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>215</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>143919</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>190</v>
-      </c>
-      <c r="I18" s="7">
-        <v>125305</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2471,7 +2471,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -2491,7 +2491,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F23CAA1-9014-4671-A835-CFA086166AC7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45966E3E-7511-4832-8E5F-35F7ED8BEB41}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2508,7 +2508,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2609,34 +2609,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>11</v>
+      </c>
+      <c r="D4" s="7">
+        <v>7163</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H4" s="7">
         <v>8</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>6397</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="H4" s="7">
-        <v>11</v>
-      </c>
-      <c r="I4" s="7">
-        <v>7163</v>
-      </c>
       <c r="J4" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M4" s="7">
         <v>19</v>
@@ -2645,13 +2645,13 @@
         <v>13561</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2660,34 +2660,34 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>44</v>
+      </c>
+      <c r="D5" s="7">
+        <v>29334</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H5" s="7">
         <v>46</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>32029</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="H5" s="7">
-        <v>44</v>
-      </c>
-      <c r="I5" s="7">
-        <v>29334</v>
-      </c>
       <c r="J5" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M5" s="7">
         <v>90</v>
@@ -2696,13 +2696,13 @@
         <v>61362</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2711,25 +2711,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>55</v>
+      </c>
+      <c r="D6" s="7">
+        <v>36497</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>54</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>38426</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>55</v>
-      </c>
-      <c r="I6" s="7">
-        <v>36497</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2767,31 +2767,31 @@
         <v>12</v>
       </c>
       <c r="D7" s="7">
-        <v>8597</v>
+        <v>9293</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H7" s="7">
         <v>12</v>
       </c>
       <c r="I7" s="7">
-        <v>9293</v>
+        <v>8597</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M7" s="7">
         <v>24</v>
@@ -2800,13 +2800,13 @@
         <v>17890</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2815,34 +2815,34 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
+        <v>65</v>
+      </c>
+      <c r="D8" s="7">
+        <v>44872</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="H8" s="7">
         <v>82</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>58768</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="H8" s="7">
-        <v>65</v>
-      </c>
-      <c r="I8" s="7">
-        <v>44872</v>
-      </c>
       <c r="J8" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M8" s="7">
         <v>147</v>
@@ -2851,13 +2851,13 @@
         <v>103639</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2866,25 +2866,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>77</v>
+      </c>
+      <c r="D9" s="7">
+        <v>54165</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>94</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>67365</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>77</v>
-      </c>
-      <c r="I9" s="7">
-        <v>54165</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2919,34 +2919,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>5</v>
+      </c>
+      <c r="D10" s="7">
+        <v>3263</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="H10" s="7">
         <v>3</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>2438</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="H10" s="7">
-        <v>5</v>
-      </c>
-      <c r="I10" s="7">
-        <v>3263</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M10" s="7">
         <v>8</v>
@@ -2955,13 +2955,13 @@
         <v>5701</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2970,34 +2970,34 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>37</v>
+      </c>
+      <c r="D11" s="7">
+        <v>26607</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="H11" s="7">
         <v>36</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>25477</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="H11" s="7">
-        <v>37</v>
-      </c>
-      <c r="I11" s="7">
-        <v>26607</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M11" s="7">
         <v>73</v>
@@ -3006,13 +3006,13 @@
         <v>52084</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3021,25 +3021,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>42</v>
+      </c>
+      <c r="D12" s="7">
+        <v>29870</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>39</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>27915</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>42</v>
-      </c>
-      <c r="I12" s="7">
-        <v>29870</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3074,34 +3074,34 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>9</v>
+      </c>
+      <c r="D13" s="7">
+        <v>6751</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="H13" s="7">
         <v>7</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>4412</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="H13" s="7">
-        <v>9</v>
-      </c>
-      <c r="I13" s="7">
-        <v>6751</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M13" s="7">
         <v>16</v>
@@ -3110,13 +3110,13 @@
         <v>11163</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3125,34 +3125,34 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>30</v>
+      </c>
+      <c r="D14" s="7">
+        <v>20418</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="H14" s="7">
         <v>29</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>20456</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="H14" s="7">
-        <v>30</v>
-      </c>
-      <c r="I14" s="7">
-        <v>20418</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M14" s="7">
         <v>59</v>
@@ -3161,13 +3161,13 @@
         <v>40874</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3176,25 +3176,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>39</v>
+      </c>
+      <c r="D15" s="7">
+        <v>27169</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>36</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>24868</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>39</v>
-      </c>
-      <c r="I15" s="7">
-        <v>27169</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3229,34 +3229,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D16" s="7">
+        <v>26470</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="H16" s="7">
+        <v>30</v>
+      </c>
+      <c r="I16" s="7">
         <v>21844</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="H16" s="7">
-        <v>37</v>
-      </c>
-      <c r="I16" s="7">
-        <v>26470</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M16" s="7">
         <v>67</v>
@@ -3265,13 +3265,13 @@
         <v>48315</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3280,34 +3280,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>176</v>
+      </c>
+      <c r="D17" s="7">
+        <v>121231</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="H17" s="7">
         <v>193</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>136730</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="H17" s="7">
-        <v>176</v>
-      </c>
-      <c r="I17" s="7">
-        <v>121231</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M17" s="7">
         <v>369</v>
@@ -3316,13 +3316,13 @@
         <v>257959</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3331,25 +3331,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>213</v>
+      </c>
+      <c r="D18" s="7">
+        <v>147701</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>223</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>158574</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>213</v>
-      </c>
-      <c r="I18" s="7">
-        <v>147701</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3378,7 +3378,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -3398,7 +3398,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02451D36-8538-4070-911D-2DFECF0B877A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB33B2F9-DFC9-4970-8357-CCF49908EC7C}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3415,7 +3415,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3516,34 +3516,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>7</v>
+      </c>
+      <c r="D4" s="7">
+        <v>4375</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="H4" s="7">
         <v>10</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>5941</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="H4" s="7">
-        <v>7</v>
-      </c>
-      <c r="I4" s="7">
-        <v>4375</v>
-      </c>
       <c r="J4" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="M4" s="7">
         <v>17</v>
@@ -3552,13 +3552,13 @@
         <v>10316</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3567,34 +3567,34 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>37</v>
+      </c>
+      <c r="D5" s="7">
+        <v>22658</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="H5" s="7">
         <v>28</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>18035</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="H5" s="7">
-        <v>37</v>
-      </c>
-      <c r="I5" s="7">
-        <v>22658</v>
-      </c>
       <c r="J5" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="M5" s="7">
         <v>65</v>
@@ -3603,13 +3603,13 @@
         <v>40693</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3618,25 +3618,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>44</v>
+      </c>
+      <c r="D6" s="7">
+        <v>27033</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>38</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>23976</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>44</v>
-      </c>
-      <c r="I6" s="7">
-        <v>27033</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3671,34 +3671,34 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>10</v>
+      </c>
+      <c r="D7" s="7">
+        <v>6153</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="H7" s="7">
         <v>6</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>3968</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="H7" s="7">
-        <v>10</v>
-      </c>
-      <c r="I7" s="7">
-        <v>6153</v>
-      </c>
       <c r="J7" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="M7" s="7">
         <v>16</v>
@@ -3707,13 +3707,13 @@
         <v>10121</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3722,34 +3722,34 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
+        <v>55</v>
+      </c>
+      <c r="D8" s="7">
+        <v>36086</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="H8" s="7">
         <v>57</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>39128</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="H8" s="7">
-        <v>55</v>
-      </c>
-      <c r="I8" s="7">
-        <v>36086</v>
-      </c>
       <c r="J8" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="M8" s="7">
         <v>112</v>
@@ -3758,13 +3758,13 @@
         <v>75214</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3773,25 +3773,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>65</v>
+      </c>
+      <c r="D9" s="7">
+        <v>42239</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>63</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>43096</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>65</v>
-      </c>
-      <c r="I9" s="7">
-        <v>42239</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3826,34 +3826,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>6</v>
+      </c>
+      <c r="D10" s="7">
+        <v>4166</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="H10" s="7">
         <v>5</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>3737</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="H10" s="7">
-        <v>6</v>
-      </c>
-      <c r="I10" s="7">
-        <v>4166</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="M10" s="7">
         <v>11</v>
@@ -3862,13 +3862,13 @@
         <v>7903</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>241</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3877,34 +3877,34 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>46</v>
+      </c>
+      <c r="D11" s="7">
+        <v>31958</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="H11" s="7">
         <v>42</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>29709</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="H11" s="7">
-        <v>46</v>
-      </c>
-      <c r="I11" s="7">
-        <v>31958</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M11" s="7">
         <v>88</v>
@@ -3913,10 +3913,10 @@
         <v>61667</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>249</v>
+        <v>214</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>250</v>
@@ -3928,25 +3928,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>52</v>
+      </c>
+      <c r="D12" s="7">
+        <v>36124</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>47</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>33446</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>52</v>
-      </c>
-      <c r="I12" s="7">
-        <v>36124</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3981,10 +3981,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>3352</v>
+        <v>1296</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>251</v>
@@ -3996,10 +3996,10 @@
         <v>253</v>
       </c>
       <c r="H13" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I13" s="7">
-        <v>1296</v>
+        <v>3352</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>254</v>
@@ -4032,10 +4032,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D14" s="7">
-        <v>19406</v>
+        <v>20769</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>260</v>
@@ -4047,10 +4047,10 @@
         <v>262</v>
       </c>
       <c r="H14" s="7">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I14" s="7">
-        <v>20769</v>
+        <v>19406</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>263</v>
@@ -4086,7 +4086,7 @@
         <v>31</v>
       </c>
       <c r="D15" s="7">
-        <v>22758</v>
+        <v>22065</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4101,7 +4101,7 @@
         <v>31</v>
       </c>
       <c r="I15" s="7">
-        <v>22065</v>
+        <v>22758</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4136,10 +4136,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16" s="7">
-        <v>16998</v>
+        <v>15989</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>269</v>
@@ -4151,10 +4151,10 @@
         <v>271</v>
       </c>
       <c r="H16" s="7">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I16" s="7">
-        <v>15989</v>
+        <v>16998</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>272</v>
@@ -4187,10 +4187,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="D17" s="7">
-        <v>106278</v>
+        <v>111472</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>278</v>
@@ -4202,10 +4202,10 @@
         <v>280</v>
       </c>
       <c r="H17" s="7">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="I17" s="7">
-        <v>111472</v>
+        <v>106278</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>281</v>
@@ -4238,25 +4238,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>192</v>
+      </c>
+      <c r="D18" s="7">
+        <v>127461</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>179</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>123276</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>192</v>
-      </c>
-      <c r="I18" s="7">
-        <v>127461</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4285,7 +4285,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -4305,7 +4305,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE463550-04B3-419F-BE04-8DEA4B96EDB8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9112B141-9814-4727-9E05-0604FA8E9B3E}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4423,10 +4423,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D4" s="7">
-        <v>7583</v>
+        <v>8296</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>288</v>
@@ -4438,10 +4438,10 @@
         <v>290</v>
       </c>
       <c r="H4" s="7">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I4" s="7">
-        <v>8396</v>
+        <v>7803</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>291</v>
@@ -4456,7 +4456,7 @@
         <v>34</v>
       </c>
       <c r="N4" s="7">
-        <v>15980</v>
+        <v>16099</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>294</v>
@@ -4474,10 +4474,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D5" s="7">
-        <v>13352</v>
+        <v>7687</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>297</v>
@@ -4489,10 +4489,10 @@
         <v>299</v>
       </c>
       <c r="H5" s="7">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="I5" s="7">
-        <v>7546</v>
+        <v>14554</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>300</v>
@@ -4507,7 +4507,7 @@
         <v>38</v>
       </c>
       <c r="N5" s="7">
-        <v>20897</v>
+        <v>22241</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>303</v>
@@ -4525,25 +4525,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>30</v>
+      </c>
+      <c r="D6" s="7">
+        <v>15983</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>42</v>
       </c>
-      <c r="D6" s="7">
-        <v>20935</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>30</v>
-      </c>
       <c r="I6" s="7">
-        <v>15942</v>
+        <v>22357</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -4558,7 +4558,7 @@
         <v>72</v>
       </c>
       <c r="N6" s="7">
-        <v>36877</v>
+        <v>38340</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4578,10 +4578,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D7" s="7">
-        <v>19583</v>
+        <v>13022</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>306</v>
@@ -4593,10 +4593,10 @@
         <v>308</v>
       </c>
       <c r="H7" s="7">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="I7" s="7">
-        <v>13054</v>
+        <v>20617</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>309</v>
@@ -4611,7 +4611,7 @@
         <v>55</v>
       </c>
       <c r="N7" s="7">
-        <v>32638</v>
+        <v>33639</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>312</v>
@@ -4629,10 +4629,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D8" s="7">
-        <v>26419</v>
+        <v>33601</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>315</v>
@@ -4644,10 +4644,10 @@
         <v>317</v>
       </c>
       <c r="H8" s="7">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="I8" s="7">
-        <v>31690</v>
+        <v>28367</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>318</v>
@@ -4662,7 +4662,7 @@
         <v>92</v>
       </c>
       <c r="N8" s="7">
-        <v>58108</v>
+        <v>61968</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>321</v>
@@ -4680,25 +4680,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>72</v>
+      </c>
+      <c r="D9" s="7">
+        <v>46623</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>75</v>
       </c>
-      <c r="D9" s="7">
-        <v>46002</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>72</v>
-      </c>
       <c r="I9" s="7">
-        <v>44744</v>
+        <v>48984</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4713,7 +4713,7 @@
         <v>147</v>
       </c>
       <c r="N9" s="7">
-        <v>90746</v>
+        <v>95607</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4733,10 +4733,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D10" s="7">
-        <v>11530</v>
+        <v>18192</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>324</v>
@@ -4748,10 +4748,10 @@
         <v>326</v>
       </c>
       <c r="H10" s="7">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="I10" s="7">
-        <v>18359</v>
+        <v>11846</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>327</v>
@@ -4766,7 +4766,7 @@
         <v>40</v>
       </c>
       <c r="N10" s="7">
-        <v>29888</v>
+        <v>30038</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>330</v>
@@ -4784,10 +4784,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="D11" s="7">
-        <v>32053</v>
+        <v>18959</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>333</v>
@@ -4799,10 +4799,10 @@
         <v>335</v>
       </c>
       <c r="H11" s="7">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="I11" s="7">
-        <v>18544</v>
+        <v>34323</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>336</v>
@@ -4817,7 +4817,7 @@
         <v>69</v>
       </c>
       <c r="N11" s="7">
-        <v>50598</v>
+        <v>53282</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>339</v>
@@ -4835,25 +4835,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>53</v>
+      </c>
+      <c r="D12" s="7">
+        <v>37151</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>56</v>
       </c>
-      <c r="D12" s="7">
-        <v>43583</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>53</v>
-      </c>
       <c r="I12" s="7">
-        <v>36903</v>
+        <v>46169</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4868,7 +4868,7 @@
         <v>109</v>
       </c>
       <c r="N12" s="7">
-        <v>80486</v>
+        <v>83320</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4888,10 +4888,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D13" s="7">
-        <v>20199</v>
+        <v>11153</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>342</v>
@@ -4903,10 +4903,10 @@
         <v>344</v>
       </c>
       <c r="H13" s="7">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I13" s="7">
-        <v>11377</v>
+        <v>20939</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>345</v>
@@ -4921,7 +4921,7 @@
         <v>43</v>
       </c>
       <c r="N13" s="7">
-        <v>31576</v>
+        <v>32092</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>348</v>
@@ -4939,10 +4939,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D14" s="7">
-        <v>41817</v>
+        <v>66804</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>351</v>
@@ -4954,10 +4954,10 @@
         <v>353</v>
       </c>
       <c r="H14" s="7">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="I14" s="7">
-        <v>45445</v>
+        <v>43753</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>354</v>
@@ -4972,7 +4972,7 @@
         <v>105</v>
       </c>
       <c r="N14" s="7">
-        <v>87263</v>
+        <v>110557</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>357</v>
@@ -4990,25 +4990,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>71</v>
+      </c>
+      <c r="D15" s="7">
+        <v>77957</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>77</v>
       </c>
-      <c r="D15" s="7">
-        <v>62016</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>71</v>
-      </c>
       <c r="I15" s="7">
-        <v>56822</v>
+        <v>64692</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -5023,7 +5023,7 @@
         <v>148</v>
       </c>
       <c r="N15" s="7">
-        <v>118839</v>
+        <v>142649</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5043,10 +5043,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D16" s="7">
-        <v>58895</v>
+        <v>50663</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>360</v>
@@ -5058,10 +5058,10 @@
         <v>362</v>
       </c>
       <c r="H16" s="7">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="I16" s="7">
-        <v>51187</v>
+        <v>61204</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>363</v>
@@ -5076,7 +5076,7 @@
         <v>172</v>
       </c>
       <c r="N16" s="7">
-        <v>110082</v>
+        <v>111868</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>366</v>
@@ -5094,10 +5094,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="D17" s="7">
-        <v>113642</v>
+        <v>127052</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>369</v>
@@ -5109,10 +5109,10 @@
         <v>371</v>
       </c>
       <c r="H17" s="7">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="I17" s="7">
-        <v>103225</v>
+        <v>120997</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>372</v>
@@ -5127,7 +5127,7 @@
         <v>304</v>
       </c>
       <c r="N17" s="7">
-        <v>216866</v>
+        <v>248048</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>375</v>
@@ -5145,25 +5145,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>226</v>
+      </c>
+      <c r="D18" s="7">
+        <v>177715</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>250</v>
       </c>
-      <c r="D18" s="7">
-        <v>172537</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>226</v>
-      </c>
       <c r="I18" s="7">
-        <v>154412</v>
+        <v>182201</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5178,7 +5178,7 @@
         <v>476</v>
       </c>
       <c r="N18" s="7">
-        <v>326948</v>
+        <v>359916</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -5192,7 +5192,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
